--- a/excelFiles/商品清单.xlsx
+++ b/excelFiles/商品清单.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownLoad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="商品信息" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品信息!$A$1:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">商品信息!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="264">
   <si>
     <t>商品名称</t>
   </si>
@@ -222,7 +227,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -238,7 +243,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -551,18 +556,318 @@
   <si>
     <t>https://u.jd.com/G6tLEHc</t>
   </si>
+  <si>
+    <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjc2yISZN6ELDNV_3df4CvRYonPPiwge3s.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
+  </si>
+  <si>
+    <t>44.80</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6QZaHy</t>
+  </si>
+  <si>
+    <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepHhPAY93E6GIum_6qw81ZBzwpas7mJdAJ.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
+  </si>
+  <si>
+    <t>29.70</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGQ9dht</t>
+  </si>
+  <si>
+    <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/teKBEXw3Mcij4kVkiIBc8Y5f_3hj3gPIsKM8enmaVrm.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>132.24</t>
+  </si>
+  <si>
+    <t>26.45</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgQHaTS</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGQpmbq</t>
+  </si>
+  <si>
+    <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxlSFi8mXkyM2Bt_327oyi9KipMMbkCpSL.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
+  </si>
+  <si>
+    <t>88.32</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrQxubt</t>
+  </si>
+  <si>
+    <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjczD8mQN6YrwaY_3df4CvRYonPPiwXLus.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
+  </si>
+  <si>
+    <t>38.30</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrQc9aR</t>
+  </si>
+  <si>
+    <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMVzE6gBkzDfJE6_3WEwxubtXqttATdNOS.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
+  </si>
+  <si>
+    <t>44.10</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGQc7P5</t>
+  </si>
+  <si>
+    <t>我的情绪为何总被他人左右</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxlQE5mZXkgUqNU_327oyi9KipKwz6KYxL.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
+  </si>
+  <si>
+    <t>56.88</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GaQWLOq</t>
+  </si>
+  <si>
+    <t>樊登少有人走的路6真诚是生命的药现货速发 现货速发</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/TAa2hBNS4yQISgPDjoKubgvL_31Q6Kvn8p4GdGQUgPs.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/31612/27/530/198362/5c3d936eE49f465d0/8ec9e74487dd729c.jpg</t>
+  </si>
+  <si>
+    <t>27.14</t>
+  </si>
+  <si>
+    <t>23.07</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1QVWj7</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1Q9Ixc</t>
+  </si>
+  <si>
+    <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/zcfJkV4J63YDXicGFyBgFOWl_3nmueRrZb6CAiL5DAe.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrQ4AiP</t>
+  </si>
+  <si>
+    <t>睡个好觉：斯坦福高效睡眠法</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAWEH703eWB5f1M_3ioM2CBSxIEEdaLrqG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
+  </si>
+  <si>
+    <t>33.86</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6QWuaL</t>
+  </si>
+  <si>
+    <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOqeDmRCqsr6VYZ_3sdbW6MKR7eR59AwZp.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GOQXubW</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGQT7jW</t>
+  </si>
+  <si>
+    <t>爱的艺术（弗洛姆作品系列）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOq6liPfqs3MQ1r_3sdbW6MKR7UUquPPap.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GOQBka9</t>
+  </si>
+  <si>
+    <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9ZYuk9Zg6w24me_3JKSTosM3iXFJLldkw.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
+  </si>
+  <si>
+    <t>33.66</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDQ9Ndq</t>
+  </si>
+  <si>
+    <t>蛤蟆先生去看心理医生</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINA5NVwDfe50lGGh_3ioM2CBSxIEEdaFMRG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgQVicA</t>
+  </si>
+  <si>
+    <t>非暴力沟通 （修订版）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9fctxX0E0qQ85jp_3UIh70AdRVss0RWlzs.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
+  </si>
+  <si>
+    <t>35.88</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDQZRVA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -571,14 +876,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -590,154 +894,21 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,192 +923,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -960,316 +951,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1527,24 +1237,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="51.4285714285714" customWidth="1"/>
+    <col min="1" max="256" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:10">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1576,695 +1286,1175 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>166</v>
+      </c>
+      <c r="I2" t="s">
+        <v>167</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>61</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>84</v>
+        <v>227</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>99</v>
+        <v>242</v>
+      </c>
+      <c r="I13" t="s">
+        <v>243</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:10">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
       <c r="H16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="1" t="s">
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
-      <c r="A20" s="1" t="s">
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
-      <c r="A22" s="1" t="s">
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J16" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:J31">
     <sortState ref="A2:J16">
       <sortCondition ref="A1"/>
     </sortState>
-    <extLst/>
   </autoFilter>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://u.jd.com/8gXDFDE"/>
-    <hyperlink ref="I6" r:id="rId2" display="https://u.jd.com/8rUUndF"/>
-    <hyperlink ref="I11" r:id="rId3" display="https://u.jd.com/8aUc8NV"/>
-    <hyperlink ref="I13" r:id="rId4" display="https://u.jd.com/8aURRXN"/>
-    <hyperlink ref="I14" r:id="rId5" display="https://u.jd.com/8GXA1KC"/>
-    <hyperlink ref="I16" r:id="rId6" display="https://u.jd.com/81XBu2H"/>
+    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I21" r:id="rId2"/>
+    <hyperlink ref="I26" r:id="rId3"/>
+    <hyperlink ref="I28" r:id="rId4"/>
+    <hyperlink ref="I29" r:id="rId5"/>
+    <hyperlink ref="I31" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/excelFiles/商品清单.xlsx
+++ b/excelFiles/商品清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="255">
   <si>
     <t>商品名称</t>
   </si>
@@ -51,10 +51,40 @@
     <t>优惠券领取链接</t>
   </si>
   <si>
+    <t>星牌（XING PAI）台球杆小头中式黑八台球杆斯诺克球杆中式八球球杆桌球杆手工 裸杆无配件</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/6vVW1usyzfCZsHRV9BImFsi7_sweEZ0ULVBzoJyNypN.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/259372/35/446/98268/676438a3F62dd8104/c77f602321bc9634.jpg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1578.00</t>
+  </si>
+  <si>
+    <t>1355.20</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>13.55</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GG69WPY</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G66cp4u</t>
+  </si>
+  <si>
     <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjeEmPlyNo2ULwo_3df4CvRYonPPiwge3s.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSje2YHtENoE8TbI_3df4CvRYonPPiwge3s.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
@@ -72,7 +102,7 @@
     <t>1.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga64JiW</t>
+    <t>https://u.jd.com/Gr6AQrE</t>
   </si>
   <si>
     <t/>
@@ -81,15 +111,12 @@
     <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPep0YIRI93JCJ9tm_6qw81ZBzwpas7mJdAJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPep02pn9D3Jdv7fs_6qw81ZBzwpas7mJdAJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>29.70</t>
   </si>
   <si>
@@ -99,13 +126,13 @@
     <t>5.94</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66NVmY</t>
+    <t>https://u.jd.com/G1605V8</t>
   </si>
   <si>
     <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/teKBEXw3MciL3DubTI7IBc79_3hj3gPIsKM8enmaVrm.html</t>
+    <t>https://jingfen.jd.com/detail/teKBEXw3MciLlcTIII7RKB00_3hj3gPIsKM8enmaVrm.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
@@ -120,16 +147,16 @@
     <t>26.45</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6USSF</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GO6pOaN</t>
+    <t>https://u.jd.com/G66JNsF</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GD6ExtV</t>
   </si>
   <si>
     <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXZwhlnXB7fxZy_327oyi9KipMMbkCpSL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXf8r2OXBRvQCF_327oyi9KipMMbkCpSL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
@@ -144,13 +171,13 @@
     <t>3.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/GO6FnIC</t>
+    <t>https://u.jd.com/Ga6kJ9i</t>
   </si>
   <si>
     <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjeMWuO7Noiv7fj_3df4CvRYonPPiwXLus.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjepglSKNotMWNX_3df4CvRYonPPiwXLus.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
@@ -165,13 +192,13 @@
     <t>1.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66JBlT</t>
+    <t>https://u.jd.com/GD6mgVH</t>
   </si>
   <si>
     <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMCArMDdkjfTvnT_3WEwxubtXqttATdNOS.html</t>
+    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMCY0crOkjaajIo_3WEwxubtXqttATdNOS.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
@@ -186,13 +213,13 @@
     <t>1.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/GG64Y5l</t>
+    <t>https://u.jd.com/G66Vz1f</t>
   </si>
   <si>
     <t>我的情绪为何总被他人左右</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXfXuhDXBRJ7UP_327oyi9KipKwz6KYxL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXqe4uNXBUgB10_327oyi9KipKwz6KYxL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
@@ -204,13 +231,13 @@
     <t>2.28</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66eTKm</t>
+    <t>https://u.jd.com/G66N1bH</t>
   </si>
   <si>
     <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/zcfJkV4J63YN832ynyZOTWlB_3nmueRrZb6CAiL5DAe.html</t>
+    <t>https://jingfen.jd.com/detail/zcfJkV4J63YNcwcZ9yZ1ZO4w_3nmueRrZb6CAiL5DAe.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
@@ -225,13 +252,13 @@
     <t>1.81</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga6FU5X</t>
+    <t>https://u.jd.com/GG6UIYS</t>
   </si>
   <si>
     <t>睡个好觉：斯坦福高效睡眠法</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAhjeOM2ehfU623_3ioM2CBSxIEEdaLrqG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAhEJDEMehB2rQ2_3ioM2CBSxIEEdaLrqG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
@@ -243,13 +270,13 @@
     <t>1.35</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6FI6m</t>
+    <t>https://u.jd.com/G16BUvG</t>
   </si>
   <si>
     <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZzqgg8qNlSPqx_3sdbW6MKR7eR59AwZp.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZetsRYqNrITYR_3sdbW6MKR7eR59AwZp.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
@@ -267,16 +294,16 @@
     <t>2.18</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6pUdd</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Ga6e6Y3</t>
+    <t>https://u.jd.com/G66NkPc</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GO6Xzt6</t>
   </si>
   <si>
     <t>爱的艺术（弗洛姆作品系列）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZIRcq7qNUoLgz_3sdbW6MKR7UUquPPap.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZb254nqNvHXAv_3sdbW6MKR7UUquPPap.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
@@ -288,13 +315,13 @@
     <t>1.01</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66e1UY</t>
+    <t>https://u.jd.com/Gg6emAf</t>
   </si>
   <si>
     <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9nvxMPbgDHPdv9_3JKSTosM3iXFJLldkw.html</t>
+    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9nOJLJtgDtfihF_3JKSTosM3iXFJLldkw.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
@@ -309,13 +336,13 @@
     <t>1.68</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16NPwP</t>
+    <t>https://u.jd.com/GD6FJGX</t>
   </si>
   <si>
     <t>蛤蟆先生去看心理医生</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAhf4Hdgehjoqgd_3ioM2CBSxIEEdaFMRG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAh0ONzBehNthkC_3ioM2CBSxIEEdaFMRG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
@@ -333,13 +360,13 @@
     <t>2.48</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6VQcN</t>
+    <t>https://u.jd.com/GD64o9Q</t>
   </si>
   <si>
     <t>非暴力沟通 （修订版）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/0R8MFfMoV9ffmIXNG0nCW5f7_3UIh70AdRVss0RWlzs.html</t>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9ff01yde0nwPEMP_3UIh70AdRVss0RWlzs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
@@ -351,13 +378,13 @@
     <t>1.44</t>
   </si>
   <si>
-    <t>https://u.jd.com/GG6RYOv</t>
+    <t>https://u.jd.com/G66l85C</t>
   </si>
   <si>
     <t>PICOOC有品智能体脂秤体重秤充电家用电子秤测人体数据脂肪秤减肥体脂称Mini-C生日礼物礼品送男女友</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qn38eEvuJdWvxVR_3FGg4Cjtl1jddA54fb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qn3VHzRDJdyUXso_3FGg4Cjtl1jddA54fb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/265676/29/25373/125186/67bfc2fbF0a229274/0d457c986afb12e4.jpg</t>
@@ -375,16 +402,16 @@
     <t>7.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6lgjG</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Gr6EYkL</t>
+    <t>https://u.jd.com/GD65Oh6</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/Gr6oQt7</t>
   </si>
   <si>
     <t>奥秘奥秘OMIN康迪精选蓝孔雀会员杆球杆3/4分体斯诺克黑八九球小头杆 一体杆（不可拆卸） 带杆盒套装/小头10mm</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sbQKl2Gijugvd_3paYfDqqIlxa2BixEr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3sL8jRHGiF7I11_3paYfDqqIlxa2BixEr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/112696/25/43050/188647/661ea463Fe0fa95e9/0e29712a1c9a654d.jpg</t>
@@ -402,16 +429,16 @@
     <t>25.20</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66cEGO</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G16mU47</t>
+    <t>https://u.jd.com/GD6ebNG</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/Gr6UfO0</t>
   </si>
   <si>
     <t>爱乐维（Elevit）德国版活性叶酸复合维生素90片 备孕-孕早期女士适用</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/57A7UrYPuiXnie9uExxCIYpi_3jk91roEJuFF578Bxj.html</t>
+    <t>https://jingfen.jd.com/detail/57A7UrYPuiXnvKF8xxxT2Vcf_3jk91roEJuFF578Bxj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/250281/17/33807/147933/67bf0b42Fb212e468/d8e0dbea1b383984.jpg</t>
@@ -429,13 +456,13 @@
     <t>17.32</t>
   </si>
   <si>
-    <t>https://u.jd.com/GO6lD5J</t>
+    <t>https://u.jd.com/G16RTO8</t>
   </si>
   <si>
     <t>杜蕾斯（durex）持久延时避孕套 男专用安全套套12只含赠 苯佐卡因中号情趣用品 【延时NO.1】经典延时10+玻尿酸2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKKeH5v0m9Mej8C_3klNtUvm52DDeBvgrC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKK7Nrs8m99foie_3klNtUvm52DDeBvgrC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/108152/29/58248/130169/67346891Fe9623bba/f3fd02994ffb4c64.jpg</t>
@@ -450,16 +477,16 @@
     <t>6.05</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16k9CN</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GG6FrqN</t>
+    <t>https://u.jd.com/Gr6VZxv</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G66WJOZ</t>
   </si>
   <si>
     <t>进化心理学：心理的新科学第4版 心理学与认知科学领域经典</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/CGVm8VLgEQymGw9TwYljm5kL_3GHvBWrhCEzzCGDwes.html</t>
+    <t>https://jingfen.jd.com/detail/CGVm8VLgEQymGh6ngYljDE0C_3GHvBWrhCEzzCGDwes.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/160487/34/31186/79037/650124c8F7960e750/e65a2c4b2177f242.jpg</t>
@@ -471,13 +498,13 @@
     <t>2.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6EY6H</t>
+    <t>https://u.jd.com/Ga6WKcW</t>
   </si>
   <si>
     <t>正念冥想：遇见更好的自己 第3版</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qn3ELYaCJdm9eEw_3FGg4Cjtl1jjVNtVXb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qn3PTKSdJdlN3rJ_3FGg4Cjtl1jjVNtVXb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/89942/3/43952/38725/65d7068aF2af46eb9/2b3eab352d2e0903.jpg</t>
@@ -489,13 +516,13 @@
     <t>2.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16x4BH</t>
+    <t>https://u.jd.com/Gr69VKT</t>
   </si>
   <si>
     <t>奴诗漫跳杆单跳台球杆跳球杆枫木冲杆分体水晶皮头专业中式台球杆桶套装 利台单跳杆1支</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sbLuIxGijxMSt_3paYfDqqIlxyECHbWr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3sMtWaQGiVE3gJ_3paYfDqqIlxyECHbWr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/157332/22/49053/69221/672b2bceFd5ce1bb7/3855b20a65b7e8b8.jpg</t>
@@ -513,16 +540,16 @@
     <t>23.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6Rto0</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1607ci</t>
+    <t>https://u.jd.com/Gr6prVF</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G160hUc</t>
   </si>
   <si>
     <t>科大讯飞智能办公本Air 2 电纸书阅读器8.2英寸墨水屏 电子书 电子笔记本 语音转文字 搭载讯飞星火大模型 【京仓速发】智能办公本Air 2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXTu9E8XBeaCri_327oyi9KipK4xpwk9L.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXpVC5FXB1G9VO_327oyi9KipK4xpwk9L.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/257734/18/24787/82112/67be89f2F96eab6ea/3efc9b5877cc41b6.jpg</t>
@@ -540,13 +567,13 @@
     <t>125.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga6piZa</t>
+    <t>https://u.jd.com/G1657D1</t>
   </si>
   <si>
     <t>效率红利+认知红利 谢春霖 套装全2册 提升工作效率 职场案头工具书</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U24EUoENDTIjMiT_3cvPzVnUx9JJ3ngW8p.html</t>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9U24YLavvDTQdage_3cvPzVnUx9JJ3ngW8p.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/191316/34/44426/36885/662f40d2F1e4e3054/bbfe2bc3eab4a38b.jpg</t>
@@ -558,13 +585,13 @@
     <t>3.73</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6AI86</t>
+    <t>https://u.jd.com/Gg6RJ3I</t>
   </si>
   <si>
     <t>动手学深度学习 PyTorch版 李沐和阿斯顿·张等强强联合之作！机器学习、深度学习、AI领域重磅教程！ deepseek机器学习（异步图书出品）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/SYuWnohDt85IS2CuNZ0fblPm_3QWdiz1QctyySYQ7B0.html</t>
+    <t>https://jingfen.jd.com/detail/SYuWnohDt85ITeLXKZ0ap7zj_3QWdiz1QctyySYQ7B0.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/57568/3/23228/192432/63db2ffbF904616b1/e47033e148934da9.jpg</t>
@@ -576,13 +603,13 @@
     <t>2.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6HRf7</t>
+    <t>https://u.jd.com/G16TKOx</t>
   </si>
   <si>
     <t>中国哲学简史（彩图精装本）哲学家冯友兰畅销七十年的经典 中国哲学入门读物 涂又光翻译</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKKSvqIQm9jRsRN_3klNtUvm52DD82SdtC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKKJJx8Bm9sy6v1_3klNtUvm52DD82SdtC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58943/21/22180/127249/64803ae8F6d0e0316/5ef28ac997a06b2e.jpg</t>
@@ -594,13 +621,13 @@
     <t>2.86</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga67XEj</t>
+    <t>https://u.jd.com/GD6eyDu</t>
   </si>
   <si>
     <t>枪炮 病菌与钢铁 2022版本 贾雷德戴蒙德著 赠解读本 崩溃 剧变 昨日之前的世界 第三种黑猩猩 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sB1tZbGiNwKHi_3paYfDqqIlTTet1gQr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3sRRDqmGi4ystp_3paYfDqqIlTTet1gQr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/85104/3/28435/196787/62b91bcdE306c51a6/cc51a0f83bf63d72.jpg</t>
@@ -612,13 +639,13 @@
     <t>2.31</t>
   </si>
   <si>
-    <t>https://u.jd.com/GG6kp9U</t>
+    <t>https://u.jd.com/Ga64yyI</t>
   </si>
   <si>
     <t>全套4册 人类简史+时间简史+相对论+物种起源自然科学启蒙天文学宇宙百科书籍 生物学遗传学自然科学</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/uq5161miAPaaSohl3E1x5xeH_3fgGndXpsAOOyFQmm2.html</t>
+    <t>https://jingfen.jd.com/detail/uq5161miAPaaGWjshE1pLs5r_3fgGndXpsAOOyFQmm2.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/40021/21/29922/58439/65445044Fff0d9539/9c6b503dc969e613.jpg</t>
@@ -633,13 +660,13 @@
     <t>8.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/GO640Yu</t>
+    <t>https://u.jd.com/G16j9lM</t>
   </si>
   <si>
     <t>金钱心理学 全球狂销超300万册，美国亚马逊理财类No.1，你和金钱的关系，决定了财富和你的距离！财务自由指南</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/goTyV1rMdbIwudTzqiMylr5t_3yuxuQosCdQQgospEs.html</t>
+    <t>https://jingfen.jd.com/detail/goTyV1rMdbIwcw708iMv6LY3_3yuxuQosCdQQgospEs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/98128/26/35155/148724/6479b9a6F28f0eac0/e99e32d25cf5b977.jpg</t>
@@ -654,13 +681,13 @@
     <t>3.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/GO6fTgY</t>
+    <t>https://u.jd.com/Gg6oyl9</t>
   </si>
   <si>
     <t>纳瓦尔宝典 财富与幸福指南 纳瓦尔智慧箴言录 巴拉吉预言 埃里克乔根森 著 樊登作序推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPep0LBu1g3JEQrdK_6qw81ZBzwpXwqvC0WJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPep0Z6bJZ3JRql5d_6qw81ZBzwpXwqvC0WJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/47246/22/17816/151164/62898f0bEc4dec9c1/8b811c3129fd3eef.jpg</t>
@@ -672,13 +699,13 @@
     <t>1.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16Rd4Y</t>
+    <t>https://u.jd.com/Ga69ckZ</t>
   </si>
   <si>
     <t>百万畅销书 穷查理宝典 全新口袋本 查理芒格智慧精要 价值投资 人生哲学 人生智慧 巴菲特 芒格之道 伯克希尔公司</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bUviJ97Bzx66Yn_3tyFQIkYHFWWhQLIOI.html</t>
+    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bUKaf5GBzZlEjZ_3tyFQIkYHFWWhQLIOI.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/232771/27/34819/84850/67bd8266Ff1d89c83/08c7fabb10ada627.jpg</t>
@@ -690,13 +717,13 @@
     <t>1.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/G160pbg</t>
+    <t>https://u.jd.com/GD6pFsd</t>
   </si>
   <si>
     <t xml:space="preserve">原则 如何创造出完美独特的自己 百万级畅销书 桥水创始人瑞 达利欧 白手起家的全成功方案 半个金融圈都在读 </t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavld6LsBVXPKk0k_3SD7M73mavggQ9D0SH.html</t>
+    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavlYRVklVXof7BX_3SD7M73mavggQ9D0SH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/103816/34/29119/84199/6284d9ddE55566bc2/5ce0dca008517992.jpg</t>
@@ -708,13 +735,13 @@
     <t>2.61</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66lq3H</t>
+    <t>https://u.jd.com/GD6Na7l</t>
   </si>
   <si>
     <t>【包邮】被讨厌的勇气 自我启发之父阿德勒的哲学课 心理学入门畅销书籍</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JSbI1EiyJnX571c2IZwvYctE_cIOf4YE6o1Y4JSQ8Hr.html</t>
+    <t>https://jingfen.jd.com/detail/JSbI1EiyJnX5XANC9ZwHQN0S_cIOf4YE6o1Y4JSQ8Hr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/211627/9/43196/116689/6730b83aF0f649b6d/35e719e16d430a81.jpg</t>
@@ -729,13 +756,13 @@
     <t>1.19</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16Tgei</t>
+    <t>https://u.jd.com/Gr6FjCY</t>
   </si>
   <si>
     <t>唐诗三百300首正版全集 注释 译文 中国诗词大全古代古典诗词书籍 中国人财保险承保【假一赔十】 无障碍阅读国学经典：唐诗三百首</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTPePJfutQRxRb2_364tk8oMXUYZqjtSkj.html</t>
+    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTPWG3ZrtQqsfPm_364tk8oMXUYZqjtSkj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/151375/35/18798/97811/665f127bF65b05381/21fff6c36bf9caac.jpg</t>
@@ -753,10 +780,10 @@
     <t>15.60</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16FmKV</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GO6JQQw</t>
+    <t>https://u.jd.com/GD6UG61</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/Gg6j0pt</t>
   </si>
 </sst>
 </file>
@@ -773,6 +800,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1107,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,307 +1193,307 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1479,153 +1507,153 @@
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1639,7 +1667,7 @@
         <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>123</v>
@@ -1671,16 +1699,16 @@
         <v>131</v>
       </c>
       <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>133</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
       </c>
       <c r="H18" t="s">
         <v>135</v>
@@ -1689,135 +1717,135 @@
         <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1831,7 +1859,7 @@
         <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>169</v>
@@ -1849,365 +1877,397 @@
         <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="H29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" t="s">
+        <v>252</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/excelFiles/商品清单.xlsx
+++ b/excelFiles/商品清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="343">
   <si>
     <t>商品名称</t>
   </si>
@@ -51,18 +51,306 @@
     <t>优惠券领取链接</t>
   </si>
   <si>
+    <t>现在你受的苦必将照亮你未来的路青春文学人生规划成长自律书籍 现在你受的苦必将照亮你未来的</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/OUuMzbenCG6jsMzrQHHLc40u_3RTWqXQ4VCJMjIxsIH.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/167867/12/42594/63441/66701377F722157f6/fc824057a8b60830.jpg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDD2Yhp</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDDPmfA</t>
+  </si>
+  <si>
+    <t>【严选】你越强大世界越公平青春成功励志类文学书籍人生规划追求内在 你越强大世界越公平</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/YSr8XbIj0VcLaq7KQCX9f52r_391fbKJeZ01HNbHZqV.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/229282/17/19059/90051/6667ad0fF00de0cf2/52e81065f66e2277.jpg</t>
+  </si>
+  <si>
+    <t>47.90</t>
+  </si>
+  <si>
+    <t>17.90</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDQl5B</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDD3xp0</t>
+  </si>
+  <si>
+    <t>【官方正版 京东配送】大众哲学 写给大众的入门级通俗哲学经典，适合大众阅读的入门级哲学著作，改变中国命运的时代经典巨著</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/TAa2hBNS4yQAOLKePoBySvQs_31Q6Kvn8p4Gd01ISks.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t13909/55/480482780/144785/11a6b260/5a0cf211Nf4e8d547.jpg</t>
+  </si>
+  <si>
+    <t>31.88</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6DaDLw</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>正版包邮 3册 资本论+国富论+博弈论 一本彻底改变了20世纪人类命运的书推动世界的十大思想著作之一哲学入门书籍 【3册】资本论+国富论+博弈论 保证正版-现货速发</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9U22RPUvGDxUb6gE_3cvPzVnUx9sSwgfdjp.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/261316/24/3990/77544/676e56b7F8ba41889/69df33bf9286ea0b.jpg</t>
+  </si>
+  <si>
+    <t>49.80</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>7.47</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDDYcSM</t>
+  </si>
+  <si>
+    <t>社交恐惧心理学打破负面正确认知自我人际交往心理学书籍 微表情心理学</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/ogPBGXQsY0D5Bazsf21L3Dfs_3rtcLE59fYVmtLNK3j.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/233001/10/18692/95993/6670f006Fe6a1c1cb/c42bf5868185062c.jpg</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6DTTJF</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODBaKA</t>
+  </si>
+  <si>
+    <t>底层逻辑 认知觉醒 自我认知深度改变思维刻意练习 成功励志书籍 自我认知深度改变思维 人与人拉开差距的思维模式帮你轻松对抗无序的人生 全2册底层逻辑+认知觉醒</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAw8b5reA2GQmw_3ioM2CBSxITLML93UG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/219895/6/25331/108021/64634751F234e10f5/d8c6ac9c9abcd3c8.jpg</t>
+  </si>
+  <si>
+    <t>53.40</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>10.68</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDpQFf</t>
+  </si>
+  <si>
+    <t>人文与社会译丛：文化的解释（新版）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKyGvI9hmlfR4Ab_3klNtUvm52DD82EmWC.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/35170/36/9205/486450/5ccf9d82E4323c17f/72c0e343e22b6272.jpg</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50.06</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDQr7f</t>
+  </si>
+  <si>
+    <t>万古江河:中国历史文化的转折与开展（2023版）史学大家许倬云经典之作、 19年清华校长赠送新生之书</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/jvZ5IpphSW0trEJVLfTgqp8v_3525UfJYSSVVjvYIk2.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/224866/9/25331/23330/66cee726F12ef1260/25d9785fc74e9147.jpg</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>50.70</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODvI14</t>
+  </si>
+  <si>
+    <t>中国历史年表（精）中华书局</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepSbrktb3Vi2xIO_6qw81ZBzwpXwqvFTLJ.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/139796/27/12458/183106/5f97c1dcE1b6de15e/8f2489f82b2c6cc2.jpg</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDDyTi9</t>
+  </si>
+  <si>
+    <t>【精选】全3册用钱赚钱书思考致富格局决定结局金融类书籍理财类钱去哪了财富自由投资理财书籍通向财富自由之路自我实现 用钱赚钱</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/R0kllLWzaCuTQfsSsUitBU2E_3OPK6QbvGaEtjFJYJH.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/233600/3/249/57328/6530fb87F8d8c5b33/69d4ca8b5f53010b.jpg</t>
+  </si>
+  <si>
+    <t>49.60</t>
+  </si>
+  <si>
+    <t>19.60</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GaDqjqJ</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDDBv6U</t>
+  </si>
+  <si>
+    <t>【新版】股市天经：量波逮涨停 黑马王子投资理财入门宝典</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/GJxdmuStJABSsyxrmbtOD6Zm_3CVJIOf5tJnnGJiyw6.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/57766/34/19857/96907/62b95750E3fce2659/081d7d250f48f883.jpg</t>
+  </si>
+  <si>
+    <t>58.70</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDzmtP</t>
+  </si>
+  <si>
+    <t>价值投资慢思考 孙善军 投资策略指南新手小白入门基础知识理财投资书籍 中国人民大学出版社 9787300333731  价值投资慢思考</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/UOWEn2A5sFSivReTBrDCEYJz_309lpmZGHsoOBN2uUi.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/265963/9/19294/99012/67aeb6f8F59c7363d/56bf7914f0ee7641.jpg</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>61.38</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6D6rd6</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODqjP9</t>
+  </si>
+  <si>
+    <t>自由与权利/世界历史名篇译读</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuE1eoysdaILRvui_3ghOcn8VRGApodUG5B.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t17263/182/1271172481/143692/97c52e28/5ac334aeN6b42cafd.jpg</t>
+  </si>
+  <si>
+    <t>31.52</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrD6DZO</t>
+  </si>
+  <si>
     <t>星牌（XING PAI）台球杆小头中式黑八台球杆斯诺克球杆中式八球球杆桌球杆手工 裸杆无配件</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/6vVW1usyzfCZsHRV9BImFsi7_sweEZ0ULVBzoJyNypN.html</t>
+    <t>https://jingfen.jd.com/detail/6vVW1usyzfC4W1snQBNZ0RW5_sweEZ0ULVBzoJyNypN.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/259372/35/446/98268/676438a3F62dd8104/c77f602321bc9634.jpg</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1578.00</t>
   </si>
   <si>
@@ -75,16 +363,16 @@
     <t>13.55</t>
   </si>
   <si>
-    <t>https://u.jd.com/GG69WPY</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G66cp4u</t>
+    <t>https://u.jd.com/GGDsQxO</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgDnmFX</t>
   </si>
   <si>
     <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSje2YHtENoE8TbI_3df4CvRYonPPiwge3s.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjEHOMBQNOp6ETY_3df4CvRYonPPiwge3s.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
@@ -96,22 +384,16 @@
     <t>44.80</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>1.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6AQrE</t>
-  </si>
-  <si>
-    <t/>
+    <t>https://u.jd.com/G1DSIak</t>
   </si>
   <si>
     <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPep02pn9D3Jdv7fs_6qw81ZBzwpas7mJdAJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeHbdgK3b1op0g_6qw81ZBzwpas7mJdAJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
@@ -120,19 +402,16 @@
     <t>29.70</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>5.94</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1605V8</t>
+    <t>https://u.jd.com/G1DIHZ0</t>
   </si>
   <si>
     <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/teKBEXw3MciLlcTIII7RKB00_3hj3gPIsKM8enmaVrm.html</t>
+    <t>https://jingfen.jd.com/detail/teKBEXw3MciIBUIvWIqg0X2S_3hj3gPIsKM8enmaVrm.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
@@ -147,37 +426,34 @@
     <t>26.45</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66JNsF</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GD6ExtV</t>
+    <t>https://u.jd.com/GaDbDW9</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgDayZb</t>
   </si>
   <si>
     <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXf8r2OXBRvQCF_327oyi9KipMMbkCpSL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxWJDMa0XE3NESN_327oyi9KipMMbkCpSL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>88.32</t>
   </si>
   <si>
     <t>3.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga6kJ9i</t>
+    <t>https://u.jd.com/GODvJBt</t>
   </si>
   <si>
     <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjepglSKNotMWNX_3df4CvRYonPPiwXLus.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjEHR00JNOpxVGC_3df4CvRYonPPiwXLus.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
@@ -192,34 +468,31 @@
     <t>1.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6mgVH</t>
+    <t>https://u.jd.com/G1D2Lms</t>
   </si>
   <si>
     <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMCY0crOkjaajIo_3WEwxubtXqttATdNOS.html</t>
+    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMNCtqmukc8SIF9_3WEwxubtXqttATdNOS.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>44.10</t>
   </si>
   <si>
     <t>1.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66Vz1f</t>
+    <t>https://u.jd.com/GrD8NgU</t>
   </si>
   <si>
     <t>我的情绪为何总被他人左右</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXqe4uNXBUgB10_327oyi9KipKwz6KYxL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxWtvQ4uXEA8ny5_327oyi9KipKwz6KYxL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
@@ -231,13 +504,13 @@
     <t>2.28</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66N1bH</t>
+    <t>https://u.jd.com/GgDO4UW</t>
   </si>
   <si>
     <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/zcfJkV4J63YNcwcZ9yZ1ZO4w_3nmueRrZb6CAiL5DAe.html</t>
+    <t>https://jingfen.jd.com/detail/zcfJkV4J63Y4R5tleyIkPMy0_3nmueRrZb6CAiL5DAe.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
@@ -252,13 +525,13 @@
     <t>1.81</t>
   </si>
   <si>
-    <t>https://u.jd.com/GG6UIYS</t>
+    <t>https://u.jd.com/GaDg0Yc</t>
   </si>
   <si>
     <t>睡个好觉：斯坦福高效睡眠法</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAhEJDEMehB2rQ2_3ioM2CBSxIEEdaLrqG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAwkP72eA2C363_3ioM2CBSxIEEdaLrqG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
@@ -270,13 +543,13 @@
     <t>1.35</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16BUvG</t>
+    <t>https://u.jd.com/G6DuxIq</t>
   </si>
   <si>
     <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZetsRYqNrITYR_3sdbW6MKR7eR59AwZp.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7Sh9W6qvA4wID_3sdbW6MKR7eR59AwZp.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
@@ -294,16 +567,16 @@
     <t>2.18</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66NkPc</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GO6Xzt6</t>
+    <t>https://u.jd.com/GgD8Cgq</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDD8Jfu</t>
   </si>
   <si>
     <t>爱的艺术（弗洛姆作品系列）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOZb254nqNvHXAv_3sdbW6MKR7UUquPPap.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOepN19VqpozqOJ_3sdbW6MKR7UUquPPap.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
@@ -315,13 +588,13 @@
     <t>1.01</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6emAf</t>
+    <t>https://u.jd.com/GaDnaBS</t>
   </si>
   <si>
     <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9nOJLJtgDtfihF_3JKSTosM3iXFJLldkw.html</t>
+    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9Adixt6guQ7WWs_3JKSTosM3iXFJLldkw.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
@@ -336,13 +609,13 @@
     <t>1.68</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6FJGX</t>
+    <t>https://u.jd.com/GODntA5</t>
   </si>
   <si>
     <t>蛤蟆先生去看心理医生</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAh0ONzBehNthkC_3ioM2CBSxIEEdaFMRG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAwk2vjeA2Cdxl_3ioM2CBSxIEEdaFMRG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
@@ -351,22 +624,19 @@
     <t>6000</t>
   </si>
   <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GD64o9Q</t>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDueJN</t>
   </si>
   <si>
     <t>非暴力沟通 （修订版）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/0R8MFfMoV9ff01yde0nwPEMP_3UIh70AdRVss0RWlzs.html</t>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9fvapjwi0rUiHDT_3UIh70AdRVss0RWlzs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
@@ -378,16 +648,16 @@
     <t>1.44</t>
   </si>
   <si>
-    <t>https://u.jd.com/G66l85C</t>
+    <t>https://u.jd.com/GrDOMT6</t>
   </si>
   <si>
     <t>PICOOC有品智能体脂秤体重秤充电家用电子秤测人体数据脂肪秤减肥体脂称Mini-C生日礼物礼品送男女友</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qn3VHzRDJdyUXso_3FGg4Cjtl1jddA54fb.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/265676/29/25373/125186/67bfc2fbF0a229274/0d457c986afb12e4.jpg</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOQQYDJJK5De2d_3FGg4Cjtl1jddA54fb.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/261336/39/25321/131894/67c00981F7203a3ab/452a89430108069f.jpg</t>
   </si>
   <si>
     <t>99.00</t>
@@ -396,22 +666,19 @@
     <t>74.00</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>7.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD65Oh6</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Gr6oQt7</t>
+    <t>https://u.jd.com/GDDQm1q</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1D2Qpw</t>
   </si>
   <si>
     <t>奥秘奥秘OMIN康迪精选蓝孔雀会员杆球杆3/4分体斯诺克黑八九球小头杆 一体杆（不可拆卸） 带杆盒套装/小头10mm</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sL8jRHGiF7I11_3paYfDqqIlxa2BixEr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3MKeFCxGFX4aMt_3paYfDqqIlxa2BixEr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/112696/25/43050/188647/661ea463Fe0fa95e9/0e29712a1c9a654d.jpg</t>
@@ -429,19 +696,19 @@
     <t>25.20</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6ebNG</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Gr6UfO0</t>
+    <t>https://u.jd.com/G1DQt4c</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGDaClG</t>
   </si>
   <si>
     <t>爱乐维（Elevit）德国版活性叶酸复合维生素90片 备孕-孕早期女士适用</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/57A7UrYPuiXnvKF8xxxT2Vcf_3jk91roEJuFF578Bxj.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/250281/17/33807/147933/67bf0b42Fb212e468/d8e0dbea1b383984.jpg</t>
+    <t>https://jingfen.jd.com/detail/57A7UrYPuiXp8AqxpxyQis5j_3jk91roEJuFF578Bxj.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/260044/28/25408/138281/67c05101F82eefe7e/a38f44709aa9e3c4.jpg</t>
   </si>
   <si>
     <t>7000</t>
@@ -450,43 +717,46 @@
     <t>489.00</t>
   </si>
   <si>
-    <t>433.00</t>
-  </si>
-  <si>
-    <t>17.32</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G16RTO8</t>
+    <t>413.00</t>
+  </si>
+  <si>
+    <t>16.52</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DrCiS</t>
   </si>
   <si>
     <t>杜蕾斯（durex）持久延时避孕套 男专用安全套套12只含赠 苯佐卡因中号情趣用品 【延时NO.1】经典延时10+玻尿酸2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKK7Nrs8m99foie_3klNtUvm52DDeBvgrC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKC4VB5LmA6sDbA_3klNtUvm52DDeBvgrC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/108152/29/58248/130169/67346891Fe9623bba/f3fd02994ffb4c64.jpg</t>
   </si>
   <si>
-    <t>109.50</t>
-  </si>
-  <si>
-    <t>60.50</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Gr6VZxv</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G66WJOZ</t>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>109.90</t>
+  </si>
+  <si>
+    <t>60.90</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgDSKoH</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DiUtD</t>
   </si>
   <si>
     <t>进化心理学：心理的新科学第4版 心理学与认知科学领域经典</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/CGVm8VLgEQymGh6ngYljDE0C_3GHvBWrhCEzzCGDwes.html</t>
+    <t>https://jingfen.jd.com/detail/CGVm8VLgEQyrnnbtvYSVRAM0_3GHvBWrhCEzzCGDwes.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/160487/34/31186/79037/650124c8F7960e750/e65a2c4b2177f242.jpg</t>
@@ -498,13 +768,13 @@
     <t>2.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga6WKcW</t>
+    <t>https://u.jd.com/GODzFqO</t>
   </si>
   <si>
     <t>正念冥想：遇见更好的自己 第3版</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qn3PTKSdJdlN3rJ_3FGg4Cjtl1jjVNtVXb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOHPQhdJKdCh1J_3FGg4Cjtl1jjVNtVXb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/89942/3/43952/38725/65d7068aF2af46eb9/2b3eab352d2e0903.jpg</t>
@@ -516,13 +786,13 @@
     <t>2.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr69VKT</t>
+    <t>https://u.jd.com/GODGZP5</t>
   </si>
   <si>
     <t>奴诗漫跳杆单跳台球杆跳球杆枫木冲杆分体水晶皮头专业中式台球杆桶套装 利台单跳杆1支</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sMtWaQGiVE3gJ_3paYfDqqIlxyECHbWr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3MTCgQxGFS5t4t_3paYfDqqIlxyECHbWr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/157332/22/49053/69221/672b2bceFd5ce1bb7/3855b20a65b7e8b8.jpg</t>
@@ -540,16 +810,16 @@
     <t>23.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6prVF</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G160hUc</t>
+    <t>https://u.jd.com/G6DrPN2</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODrCKm</t>
   </si>
   <si>
     <t>科大讯飞智能办公本Air 2 电纸书阅读器8.2英寸墨水屏 电子书 电子笔记本 语音转文字 搭载讯飞星火大模型 【京仓速发】智能办公本Air 2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxXpVC5FXB1G9VO_327oyi9KipK4xpwk9L.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJHVsgZXZmGjIU_327oyi9KipK4xpwk9L.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/257734/18/24787/82112/67be89f2F96eab6ea/3efc9b5877cc41b6.jpg</t>
@@ -567,13 +837,13 @@
     <t>125.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1657D1</t>
+    <t>https://u.jd.com/GgDbfWV</t>
   </si>
   <si>
     <t>效率红利+认知红利 谢春霖 套装全2册 提升工作效率 职场案头工具书</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U24YLavvDTQdage_3cvPzVnUx9JJ3ngW8p.html</t>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9U263HPlkDbzpnay_3cvPzVnUx9JJ3ngW8p.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/191316/34/44426/36885/662f40d2F1e4e3054/bbfe2bc3eab4a38b.jpg</t>
@@ -585,13 +855,13 @@
     <t>3.73</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6RJ3I</t>
+    <t>https://u.jd.com/GODwEp9</t>
   </si>
   <si>
     <t>动手学深度学习 PyTorch版 李沐和阿斯顿·张等强强联合之作！机器学习、深度学习、AI领域重磅教程！ deepseek机器学习（异步图书出品）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/SYuWnohDt85ITeLXKZ0ap7zj_3QWdiz1QctyySYQ7B0.html</t>
+    <t>https://jingfen.jd.com/detail/SYuWnohDt85Rrn2WhZP0zZgU_3QWdiz1QctyySYQ7B0.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/57568/3/23228/192432/63db2ffbF904616b1/e47033e148934da9.jpg</t>
@@ -603,13 +873,13 @@
     <t>2.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16TKOx</t>
+    <t>https://u.jd.com/GODGJ34</t>
   </si>
   <si>
     <t>中国哲学简史（彩图精装本）哲学家冯友兰畅销七十年的经典 中国哲学入门读物 涂又光翻译</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKKJJx8Bm9sy6v1_3klNtUvm52DD82SdtC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKyBfpghmltNeeb_3klNtUvm52DD82SdtC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58943/21/22180/127249/64803ae8F6d0e0316/5ef28ac997a06b2e.jpg</t>
@@ -621,31 +891,31 @@
     <t>2.86</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6eyDu</t>
+    <t>https://u.jd.com/GODwkTI</t>
   </si>
   <si>
     <t>枪炮 病菌与钢铁 2022版本 贾雷德戴蒙德著 赠解读本 崩溃 剧变 昨日之前的世界 第三种黑猩猩 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3sRRDqmGi4ystp_3paYfDqqIlTTet1gQr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3MTisFDGFSWDK4_3paYfDqqIlTTet1gQr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/85104/3/28435/196787/62b91bcdE306c51a6/cc51a0f83bf63d72.jpg</t>
   </si>
   <si>
-    <t>57.80</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Ga64yyI</t>
+    <t>66.75</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DaXXH</t>
   </si>
   <si>
     <t>全套4册 人类简史+时间简史+相对论+物种起源自然科学启蒙天文学宇宙百科书籍 生物学遗传学自然科学</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/uq5161miAPaaGWjshE1pLs5r_3fgGndXpsAOOyFQmm2.html</t>
+    <t>https://jingfen.jd.com/detail/uq5161miAPaMEVe2xEx7Ymdn_3fgGndXpsAOOyFQmm2.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/40021/21/29922/58439/65445044Fff0d9539/9c6b503dc969e613.jpg</t>
@@ -654,19 +924,16 @@
     <t>28.80</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
     <t>8.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/G16j9lM</t>
+    <t>https://u.jd.com/GDD6f6Z</t>
   </si>
   <si>
     <t>金钱心理学 全球狂销超300万册，美国亚马逊理财类No.1，你和金钱的关系，决定了财富和你的距离！财务自由指南</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/goTyV1rMdbIwcw708iMv6LY3_3yuxuQosCdQQgospEs.html</t>
+    <t>https://jingfen.jd.com/detail/goTyV1rMdbIPh9G1gikdNmIa_3yuxuQosCdQQgospEs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/98128/26/35155/148724/6479b9a6F28f0eac0/e99e32d25cf5b977.jpg</t>
@@ -681,13 +948,13 @@
     <t>3.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gg6oyl9</t>
+    <t>https://u.jd.com/G1Dvd4K</t>
   </si>
   <si>
     <t>纳瓦尔宝典 财富与幸福指南 纳瓦尔智慧箴言录 巴拉吉预言 埃里克乔根森 著 樊登作序推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPep0Z6bJZ3JRql5d_6qw81ZBzwpXwqvC0WJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepSxk2883Vtgmj0_6qw81ZBzwpXwqvC0WJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/47246/22/17816/151164/62898f0bEc4dec9c1/8b811c3129fd3eef.jpg</t>
@@ -699,13 +966,13 @@
     <t>1.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/Ga69ckZ</t>
+    <t>https://u.jd.com/GaDadEL</t>
   </si>
   <si>
     <t>百万畅销书 穷查理宝典 全新口袋本 查理芒格智慧精要 价值投资 人生哲学 人生智慧 巴菲特 芒格之道 伯克希尔公司</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bUKaf5GBzZlEjZ_3tyFQIkYHFWWhQLIOI.html</t>
+    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bYUNdq5BjTQRs3_3tyFQIkYHFWWhQLIOI.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/232771/27/34819/84850/67bd8266Ff1d89c83/08c7fabb10ada627.jpg</t>
@@ -717,13 +984,13 @@
     <t>1.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6pFsd</t>
+    <t>https://u.jd.com/G6DqpnG</t>
   </si>
   <si>
     <t xml:space="preserve">原则 如何创造出完美独特的自己 百万级畅销书 桥水创始人瑞 达利欧 白手起家的全成功方案 半个金融圈都在读 </t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavlYRVklVXof7BX_3SD7M73mavggQ9D0SH.html</t>
+    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavDwucyCV84OGSz_3SD7M73mavggQ9D0SH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/103816/34/29119/84199/6284d9ddE55566bc2/5ce0dca008517992.jpg</t>
@@ -735,13 +1002,13 @@
     <t>2.61</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6Na7l</t>
+    <t>https://u.jd.com/GODzYC9</t>
   </si>
   <si>
     <t>【包邮】被讨厌的勇气 自我启发之父阿德勒的哲学课 心理学入门畅销书籍</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JSbI1EiyJnX5XANC9ZwHQN0S_cIOf4YE6o1Y4JSQ8Hr.html</t>
+    <t>https://jingfen.jd.com/detail/JSbI1EiyJnXIKAMAJZFVQMLC_cIOf4YE6o1Y4JSQ8Hr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/211627/9/43196/116689/6730b83aF0f649b6d/35e719e16d430a81.jpg</t>
@@ -756,13 +1023,13 @@
     <t>1.19</t>
   </si>
   <si>
-    <t>https://u.jd.com/Gr6FjCY</t>
+    <t>https://u.jd.com/GaDSanU</t>
   </si>
   <si>
     <t>唐诗三百300首正版全集 注释 译文 中国诗词大全古代古典诗词书籍 中国人财保险承保【假一赔十】 无障碍阅读国学经典：唐诗三百首</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTPWG3ZrtQqsfPm_364tk8oMXUYZqjtSkj.html</t>
+    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTSE18DrtEr8pUm_364tk8oMXUYZqjtSkj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/151375/35/18798/97811/665f127bF65b05381/21fff6c36bf9caac.jpg</t>
@@ -774,16 +1041,13 @@
     <t>38.90</t>
   </si>
   <si>
-    <t>40.1</t>
-  </si>
-  <si>
     <t>15.60</t>
   </si>
   <si>
-    <t>https://u.jd.com/GD6UG61</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/Gg6j0pt</t>
+    <t>https://u.jd.com/GDDGVRO</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DnKXI</t>
   </si>
 </sst>
 </file>
@@ -800,7 +1064,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1135,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,10 +1482,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1269,39 +1532,39 @@
         <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1315,80 +1578,80 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
       <c r="H8" t="s">
         <v>63</v>
@@ -1397,7 +1660,7 @@
         <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1411,48 +1674,48 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -1461,7 +1724,7 @@
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1481,42 +1744,42 @@
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>90</v>
@@ -1525,167 +1788,167 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>96</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,432 +1971,432 @@
         <v>133</v>
       </c>
       <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
         <v>134</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>136</v>
-      </c>
-      <c r="J18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
         <v>140</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
         <v>141</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>142</v>
       </c>
-      <c r="F19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" t="s">
-        <v>145</v>
-      </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
         <v>146</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>147</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
         <v>148</v>
       </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" t="s">
-        <v>152</v>
-      </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
         <v>154</v>
       </c>
-      <c r="B21" t="s">
+      <c r="I21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" t="s">
-        <v>159</v>
-      </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
         <v>160</v>
       </c>
-      <c r="B22" t="s">
+      <c r="I22" t="s">
         <v>161</v>
       </c>
-      <c r="C22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" t="s">
-        <v>165</v>
-      </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" t="s">
         <v>189</v>
       </c>
-      <c r="B26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s">
-        <v>193</v>
-      </c>
-      <c r="I26" t="s">
-        <v>194</v>
-      </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
         <v>195</v>
       </c>
-      <c r="B27" t="s">
+      <c r="I27" t="s">
         <v>196</v>
       </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
-        <v>199</v>
-      </c>
-      <c r="I27" t="s">
-        <v>200</v>
-      </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
         <v>201</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
         <v>202</v>
       </c>
-      <c r="C28" t="s">
+      <c r="I28" t="s">
         <v>203</v>
       </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>205</v>
-      </c>
-      <c r="I28" t="s">
-        <v>206</v>
-      </c>
       <c r="J28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
         <v>207</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" t="s">
+      <c r="I29" t="s">
         <v>209</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" t="s">
-        <v>213</v>
-      </c>
       <c r="J29" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
         <v>214</v>
       </c>
-      <c r="B30" t="s">
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" t="s">
         <v>216</v>
       </c>
-      <c r="D30" t="s">
+      <c r="J30" t="s">
         <v>217</v>
-      </c>
-      <c r="E30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" t="s">
-        <v>218</v>
-      </c>
-      <c r="G30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" t="s">
-        <v>220</v>
-      </c>
-      <c r="J30" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
         <v>221</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>222</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>223</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>224</v>
       </c>
-      <c r="F31" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>225</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>226</v>
-      </c>
-      <c r="J31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2147,127 +2410,543 @@
         <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" t="s">
-        <v>251</v>
-      </c>
-      <c r="H35" t="s">
-        <v>252</v>
-      </c>
-      <c r="I35" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" t="s">
-        <v>254</v>
+      <c r="E36" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" t="s">
+        <v>262</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s">
+        <v>283</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" t="s">
+        <v>289</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>295</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>301</v>
+      </c>
+      <c r="I42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>314</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s">
+        <v>320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" t="s">
+        <v>332</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s">
+        <v>333</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>340</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/excelFiles/商品清单.xlsx
+++ b/excelFiles/商品清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="354">
   <si>
     <t>商品名称</t>
   </si>
@@ -51,18 +51,60 @@
     <t>优惠券领取链接</t>
   </si>
   <si>
+    <t>【自营正版】deepseek实用操作指南 李尚龙清华大学 2025 入门、搜索、答疑、写作 deepseek使用教程 ai时代生存手册 零基础掌握deepseek 从入门到精通deepseek教程自营</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/czqr8K6W8htY7PsqKTrCDn7A_336URiE1t8FCkOSHPB.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/235596/27/30378/120411/67bc2878Fe2b4e87b/76c7f4711d68833a.jpg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>39.80</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>7.96</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDnXGT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>【自营包邮】DeepSeek实用操作指南 : 入门 搜索 答疑 写作  畅销书 李尚龙新作人工智能 大模型交互 零基础掌握 AI办公图书 从零到一学会deepseek</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/kbKetp2dxEeTyeLhnARKtsOC_385VheJMPxBBkh3UVw.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/263036/37/23951/79147/67bbd7c8F4dbb52c3/f9f345d570611d59.jpg</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6D3My2</t>
+  </si>
+  <si>
     <t>现在你受的苦必将照亮你未来的路青春文学人生规划成长自律书籍 现在你受的苦必将照亮你未来的</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/OUuMzbenCG6jsMzrQHHLc40u_3RTWqXQ4VCJMjIxsIH.html</t>
+    <t>https://jingfen.jd.com/detail/OUuMzbenCG6BcnmO6HnTHUg2_3RTWqXQ4VCJMjIxsIH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/167867/12/42594/63441/66701377F722157f6/fc824057a8b60830.jpg</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>49.90</t>
   </si>
   <si>
@@ -75,16 +117,16 @@
     <t>7.98</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDD2Yhp</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDPmfA</t>
+    <t>https://u.jd.com/G6DRs4e</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GGDvXmg</t>
   </si>
   <si>
     <t>【严选】你越强大世界越公平青春成功励志类文学书籍人生规划追求内在 你越强大世界越公平</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/YSr8XbIj0VcLaq7KQCX9f52r_391fbKJeZ01HNbHZqV.html</t>
+    <t>https://jingfen.jd.com/detail/YSr8XbIj0VcLLpW8QCX3tuHr_391fbKJeZ01HNbHZqV.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/229282/17/19059/90051/6667ad0fF00de0cf2/52e81065f66e2277.jpg</t>
@@ -102,16 +144,16 @@
     <t>5.37</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDQl5B</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDD3xp0</t>
+    <t>https://u.jd.com/GODvk1e</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GaDTGbu</t>
   </si>
   <si>
     <t>【官方正版 京东配送】大众哲学 写给大众的入门级通俗哲学经典，适合大众阅读的入门级哲学著作，改变中国命运的时代经典巨著</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/TAa2hBNS4yQAOLKePoBySvQs_31Q6Kvn8p4Gd01ISks.html</t>
+    <t>https://jingfen.jd.com/detail/TAa2hBNS4yQARjBNVoBgpn82_31Q6Kvn8p4Gd01ISks.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t13909/55/480482780/144785/11a6b260/5a0cf211Nf4e8d547.jpg</t>
@@ -126,16 +168,13 @@
     <t>3.19</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DaDLw</t>
-  </si>
-  <si>
-    <t/>
+    <t>https://u.jd.com/GgDBPR3</t>
   </si>
   <si>
     <t>正版包邮 3册 资本论+国富论+博弈论 一本彻底改变了20世纪人类命运的书推动世界的十大思想著作之一哲学入门书籍 【3册】资本论+国富论+博弈论 保证正版-现货速发</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U22RPUvGDxUb6gE_3cvPzVnUx9sSwgfdjp.html</t>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9U26MzBVDDbDYg9Q_3cvPzVnUx9sSwgfdjp.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/261316/24/3990/77544/676e56b7F8ba41889/69df33bf9286ea0b.jpg</t>
@@ -150,13 +189,13 @@
     <t>7.47</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDYcSM</t>
+    <t>https://u.jd.com/G1DS1G1</t>
   </si>
   <si>
     <t>社交恐惧心理学打破负面正确认知自我人际交往心理学书籍 微表情心理学</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/ogPBGXQsY0D5Bazsf21L3Dfs_3rtcLE59fYVmtLNK3j.html</t>
+    <t>https://jingfen.jd.com/detail/ogPBGXQsY0D5PTbCE21QNJn4_3rtcLE59fYVmtLNK3j.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/233001/10/18692/95993/6670f006Fe6a1c1cb/c42bf5868185062c.jpg</t>
@@ -165,16 +204,16 @@
     <t>7.18</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DTTJF</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODBaKA</t>
+    <t>https://u.jd.com/GODHk2d</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgDEyWx</t>
   </si>
   <si>
     <t>底层逻辑 认知觉醒 自我认知深度改变思维刻意练习 成功励志书籍 自我认知深度改变思维 人与人拉开差距的思维模式帮你轻松对抗无序的人生 全2册底层逻辑+认知觉醒</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAw8b5reA2GQmw_3ioM2CBSxITLML93UG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAvIvAMeAsrWO2_3ioM2CBSxITLML93UG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/219895/6/25331/108021/64634751F234e10f5/d8c6ac9c9abcd3c8.jpg</t>
@@ -183,19 +222,16 @@
     <t>53.40</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>10.68</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDpQFf</t>
+    <t>https://u.jd.com/GaDH0YJ</t>
   </si>
   <si>
     <t>人文与社会译丛：文化的解释（新版）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKyGvI9hmlfR4Ab_3klNtUvm52DD82EmWC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKygL9olmlFiYta_3klNtUvm52DD82EmWC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/35170/36/9205/486450/5ccf9d82E4323c17f/72c0e343e22b6272.jpg</t>
@@ -207,19 +243,16 @@
     <t>50.06</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDQr7f</t>
+    <t>https://u.jd.com/GgDDqA3</t>
   </si>
   <si>
     <t>万古江河:中国历史文化的转折与开展（2023版）史学大家许倬云经典之作、 19年清华校长赠送新生之书</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/jvZ5IpphSW0trEJVLfTgqp8v_3525UfJYSSVVjvYIk2.html</t>
+    <t>https://jingfen.jd.com/detail/jvZ5IpphSW06oVzxQfHC2AJt_3525UfJYSSVVjvYIk2.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/224866/9/25331/23330/66cee726F12ef1260/25d9785fc74e9147.jpg</t>
@@ -234,13 +267,13 @@
     <t>2.03</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODvI14</t>
+    <t>https://u.jd.com/G6DRsIx</t>
   </si>
   <si>
     <t>中国历史年表（精）中华书局</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPepSbrktb3Vi2xIO_6qw81ZBzwpXwqvFTLJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeLyiam3bE8eW9_6qw81ZBzwpXwqvFTLJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/139796/27/12458/183106/5f97c1dcE1b6de15e/8f2489f82b2c6cc2.jpg</t>
@@ -252,13 +285,13 @@
     <t>1.56</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDyTi9</t>
+    <t>https://u.jd.com/GODBPFN</t>
   </si>
   <si>
     <t>【精选】全3册用钱赚钱书思考致富格局决定结局金融类书籍理财类钱去哪了财富自由投资理财书籍通向财富自由之路自我实现 用钱赚钱</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/R0kllLWzaCuTQfsSsUitBU2E_3OPK6QbvGaEtjFJYJH.html</t>
+    <t>https://jingfen.jd.com/detail/R0kllLWzaCuTIA4C5UisnwaL_3OPK6QbvGaEtjFJYJH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/233600/3/249/57328/6530fb87F8d8c5b33/69d4ca8b5f53010b.jpg</t>
@@ -273,16 +306,16 @@
     <t>7.86</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDqjqJ</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDBv6U</t>
+    <t>https://u.jd.com/GrDrHL0</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GaDabxL</t>
   </si>
   <si>
     <t>【新版】股市天经：量波逮涨停 黑马王子投资理财入门宝典</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/GJxdmuStJABSsyxrmbtOD6Zm_3CVJIOf5tJnnGJiyw6.html</t>
+    <t>https://jingfen.jd.com/detail/GJxdmuStJABSBCVWibt2dFki_3CVJIOf5tJnnGJiyw6.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/57766/34/19857/96907/62b95750E3fce2659/081d7d250f48f883.jpg</t>
@@ -294,13 +327,13 @@
     <t>2.35</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDzmtP</t>
+    <t>https://u.jd.com/GDDn8oy</t>
   </si>
   <si>
     <t>价值投资慢思考 孙善军 投资策略指南新手小白入门基础知识理财投资书籍 中国人民大学出版社 9787300333731  价值投资慢思考</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/UOWEn2A5sFSivReTBrDCEYJz_309lpmZGHsoOBN2uUi.html</t>
+    <t>https://jingfen.jd.com/detail/UOWEn2A5sFSiIRBc8rDtEjpG_309lpmZGHsoOBN2uUi.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/265963/9/19294/99012/67aeb6f8F59c7363d/56bf7914f0ee7641.jpg</t>
@@ -318,16 +351,16 @@
     <t>4.91</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6D6rd6</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODqjP9</t>
+    <t>https://u.jd.com/GgDvc8O</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrDN1BO</t>
   </si>
   <si>
     <t>自由与权利/世界历史名篇译读</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuE1eoysdaILRvui_3ghOcn8VRGApodUG5B.html</t>
+    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuE1MnV2GaIpZYkC_3ghOcn8VRGApodUG5B.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t17263/182/1271172481/143692/97c52e28/5ac334aeN6b42cafd.jpg</t>
@@ -339,13 +372,13 @@
     <t>2.52</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrD6DZO</t>
+    <t>https://u.jd.com/GGDry2f</t>
   </si>
   <si>
     <t>星牌（XING PAI）台球杆小头中式黑八台球杆斯诺克球杆中式八球球杆桌球杆手工 裸杆无配件</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/6vVW1usyzfC4W1snQBNZ0RW5_sweEZ0ULVBzoJyNypN.html</t>
+    <t>https://jingfen.jd.com/detail/6vVW1usyzfC4oYqeyBN8IOeV_sweEZ0ULVBzoJyNypN.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/259372/35/446/98268/676438a3F62dd8104/c77f602321bc9634.jpg</t>
@@ -363,16 +396,16 @@
     <t>13.55</t>
   </si>
   <si>
-    <t>https://u.jd.com/GGDsQxO</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDnmFX</t>
+    <t>https://u.jd.com/GODPtEn</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GDDSUeq</t>
   </si>
   <si>
     <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjEHOMBQNOp6ETY_3df4CvRYonPPiwge3s.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjdwbyjTNuBQ3rW_3df4CvRYonPPiwge3s.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
@@ -387,13 +420,13 @@
     <t>1.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1DSIak</t>
+    <t>https://u.jd.com/G1DSrgD</t>
   </si>
   <si>
     <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeHbdgK3b1op0g_6qw81ZBzwpas7mJdAJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPeperv2Y23bzpmuR_6qw81ZBzwpas7mJdAJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
@@ -405,13 +438,13 @@
     <t>5.94</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1DIHZ0</t>
+    <t>https://u.jd.com/G6Dvyn7</t>
   </si>
   <si>
     <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/teKBEXw3MciIBUIvWIqg0X2S_3hj3gPIsKM8enmaVrm.html</t>
+    <t>https://jingfen.jd.com/detail/teKBEXw3MciIJGim3IqwCxzK_3hj3gPIsKM8enmaVrm.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
@@ -426,16 +459,16 @@
     <t>26.45</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDbDW9</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDayZb</t>
+    <t>https://u.jd.com/G6DrK1v</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODgkPl</t>
   </si>
   <si>
     <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxWJDMa0XE3NESN_327oyi9KipMMbkCpSL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJ3OYePXZJ4GRD_327oyi9KipMMbkCpSL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
@@ -447,13 +480,13 @@
     <t>3.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODvJBt</t>
+    <t>https://u.jd.com/GaDD4Qu</t>
   </si>
   <si>
     <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjEHR00JNOpxVGC_3df4CvRYonPPiwXLus.html</t>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynSjdwWi5FNuBv2oN_3df4CvRYonPPiwXLus.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
@@ -468,13 +501,13 @@
     <t>1.53</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1D2Lms</t>
+    <t>https://u.jd.com/GgD09nQ</t>
   </si>
   <si>
     <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMNCtqmukc8SIF9_3WEwxubtXqttATdNOS.html</t>
+    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMNmElkekcVfCCE_3WEwxubtXqttATdNOS.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
@@ -486,13 +519,13 @@
     <t>1.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrD8NgU</t>
+    <t>https://u.jd.com/GrD2TJy</t>
   </si>
   <si>
     <t>我的情绪为何总被他人左右</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxWtvQ4uXEA8ny5_327oyi9KipKwz6KYxL.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJpxzmbXZ1noNa_327oyi9KipKwz6KYxL.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
@@ -504,13 +537,13 @@
     <t>2.28</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgDO4UW</t>
+    <t>https://u.jd.com/GgDHOXi</t>
   </si>
   <si>
     <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/zcfJkV4J63Y4R5tleyIkPMy0_3nmueRrZb6CAiL5DAe.html</t>
+    <t>https://jingfen.jd.com/detail/zcfJkV4J63Yyciacxyg1FHeZ_3nmueRrZb6CAiL5DAe.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
@@ -525,13 +558,13 @@
     <t>1.81</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDg0Yc</t>
+    <t>https://u.jd.com/GrDAGMc</t>
   </si>
   <si>
     <t>睡个好觉：斯坦福高效睡眠法</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAwkP72eA2C363_3ioM2CBSxIEEdaLrqG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAlF6DXeAhmOGV_3ioM2CBSxIEEdaLrqG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
@@ -543,13 +576,13 @@
     <t>1.35</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DuxIq</t>
+    <t>https://u.jd.com/GrDTMuK</t>
   </si>
   <si>
     <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7Sh9W6qvA4wID_3sdbW6MKR7eR59AwZp.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7bULxKqvvyc8B_3sdbW6MKR7eR59AwZp.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
@@ -567,16 +600,16 @@
     <t>2.18</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgD8Cgq</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDD8Jfu</t>
+    <t>https://u.jd.com/GGDHXbC</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GODl5fC</t>
   </si>
   <si>
     <t>爱的艺术（弗洛姆作品系列）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rOepN19VqpozqOJ_3sdbW6MKR7UUquPPap.html</t>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7rAnUeqvewBQd_3sdbW6MKR7UUquPPap.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
@@ -588,13 +621,13 @@
     <t>1.01</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDnaBS</t>
+    <t>https://u.jd.com/GGDEL8w</t>
   </si>
   <si>
     <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9Adixt6guQ7WWs_3JKSTosM3iXFJLldkw.html</t>
+    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9LWzlMWg3fU1uj_3JKSTosM3iXFJLldkw.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
@@ -609,13 +642,13 @@
     <t>1.68</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODntA5</t>
+    <t>https://u.jd.com/GDDHwWq</t>
   </si>
   <si>
     <t>蛤蟆先生去看心理医生</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAwk2vjeA2Cdxl_3ioM2CBSxIEEdaFMRG.html</t>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINAAuN2FfeA5xdHh_3ioM2CBSxIEEdaFMRG.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
@@ -630,13 +663,13 @@
     <t>3.42</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDueJN</t>
+    <t>https://u.jd.com/GGD2k5T</t>
   </si>
   <si>
     <t>非暴力沟通 （修订版）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/0R8MFfMoV9fvapjwi0rUiHDT_3UIh70AdRVss0RWlzs.html</t>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9faJ6DJh06xk7y4_3UIh70AdRVss0RWlzs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
@@ -648,13 +681,13 @@
     <t>1.44</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDOMT6</t>
+    <t>https://u.jd.com/GODpcUe</t>
   </si>
   <si>
     <t>PICOOC有品智能体脂秤体重秤充电家用电子秤测人体数据脂肪秤减肥体脂称Mini-C生日礼物礼品送男女友</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOQQYDJJK5De2d_3FGg4Cjtl1jddA54fb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qnONOitXJKrXOTq_3FGg4Cjtl1jddA54fb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/261336/39/25321/131894/67c00981F7203a3ab/452a89430108069f.jpg</t>
@@ -669,16 +702,16 @@
     <t>7.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDQm1q</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1D2Qpw</t>
+    <t>https://u.jd.com/GrDDJZn</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GgDfA6C</t>
   </si>
   <si>
     <t>奥秘奥秘OMIN康迪精选蓝孔雀会员杆球杆3/4分体斯诺克黑八九球小头杆 一体杆（不可拆卸） 带杆盒套装/小头10mm</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3MKeFCxGFX4aMt_3paYfDqqIlxa2BixEr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3MUVwvjGFPnVlq_3paYfDqqIlxa2BixEr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/112696/25/43050/188647/661ea463Fe0fa95e9/0e29712a1c9a654d.jpg</t>
@@ -696,16 +729,16 @@
     <t>25.20</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1DQt4c</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDaClG</t>
+    <t>https://u.jd.com/G1DvZMX</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DSrOo</t>
   </si>
   <si>
     <t>爱乐维（Elevit）德国版活性叶酸复合维生素90片 备孕-孕早期女士适用</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/57A7UrYPuiXp8AqxpxyQis5j_3jk91roEJuFF578Bxj.html</t>
+    <t>https://jingfen.jd.com/detail/57A7UrYPuiXpgwrAqxyDTo0m_3jk91roEJuFF578Bxj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/260044/28/25408/138281/67c05101F82eefe7e/a38f44709aa9e3c4.jpg</t>
@@ -717,19 +750,19 @@
     <t>489.00</t>
   </si>
   <si>
-    <t>413.00</t>
-  </si>
-  <si>
-    <t>16.52</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DrCiS</t>
+    <t>433.00</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/GrD1ml8</t>
   </si>
   <si>
     <t>杜蕾斯（durex）持久延时避孕套 男专用安全套套12只含赠 苯佐卡因中号情趣用品 【延时NO.1】经典延时10+玻尿酸2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKC4VB5LmA6sDbA_3klNtUvm52DDeBvgrC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKye9F5ImlMzVbH_3klNtUvm52DDeBvgrC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/108152/29/58248/130169/67346891Fe9623bba/f3fd02994ffb4c64.jpg</t>
@@ -747,16 +780,16 @@
     <t>6.09</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgDSKoH</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DiUtD</t>
+    <t>https://u.jd.com/GDDlBP2</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DB3xi</t>
   </si>
   <si>
     <t>进化心理学：心理的新科学第4版 心理学与认知科学领域经典</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/CGVm8VLgEQyrnnbtvYSVRAM0_3GHvBWrhCEzzCGDwes.html</t>
+    <t>https://jingfen.jd.com/detail/CGVm8VLgEQyr3NMHXYSNrtah_3GHvBWrhCEzzCGDwes.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/160487/34/31186/79037/650124c8F7960e750/e65a2c4b2177f242.jpg</t>
@@ -768,13 +801,13 @@
     <t>2.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODzFqO</t>
+    <t>https://u.jd.com/GGD0rJm</t>
   </si>
   <si>
     <t>正念冥想：遇见更好的自己 第3版</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOHPQhdJKdCh1J_3FGg4Cjtl1jjVNtVXb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOVIJdiJKyE64E_3FGg4Cjtl1jjVNtVXb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/89942/3/43952/38725/65d7068aF2af46eb9/2b3eab352d2e0903.jpg</t>
@@ -786,13 +819,13 @@
     <t>2.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODGZP5</t>
+    <t>https://u.jd.com/GGDjg8G</t>
   </si>
   <si>
     <t>奴诗漫跳杆单跳台球杆跳球杆枫木冲杆分体水晶皮头专业中式台球杆桶套装 利台单跳杆1支</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3MTCgQxGFS5t4t_3paYfDqqIlxyECHbWr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3M2EBgMGF5tqaP_3paYfDqqIlxyECHbWr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/157332/22/49053/69221/672b2bceFd5ce1bb7/3855b20a65b7e8b8.jpg</t>
@@ -810,16 +843,16 @@
     <t>23.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DrPN2</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODrCKm</t>
+    <t>https://u.jd.com/GgD1kfU</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G6Da7gz</t>
   </si>
   <si>
     <t>科大讯飞智能办公本Air 2 电纸书阅读器8.2英寸墨水屏 电子书 电子笔记本 语音转文字 搭载讯飞星火大模型 【京仓速发】智能办公本Air 2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJHVsgZXZmGjIU_327oyi9KipK4xpwk9L.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJ1njKVXZpxsjR_327oyi9KipK4xpwk9L.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/257734/18/24787/82112/67be89f2F96eab6ea/3efc9b5877cc41b6.jpg</t>
@@ -837,13 +870,13 @@
     <t>125.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgDbfWV</t>
+    <t>https://u.jd.com/G6DY775</t>
   </si>
   <si>
     <t>效率红利+认知红利 谢春霖 套装全2册 提升工作效率 职场案头工具书</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U263HPlkDbzpnay_3cvPzVnUx9JJ3ngW8p.html</t>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9U26WRTblDbT77hu_3cvPzVnUx9JJ3ngW8p.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/191316/34/44426/36885/662f40d2F1e4e3054/bbfe2bc3eab4a38b.jpg</t>
@@ -855,13 +888,13 @@
     <t>3.73</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODwEp9</t>
+    <t>https://u.jd.com/GrDJBZ8</t>
   </si>
   <si>
     <t>动手学深度学习 PyTorch版 李沐和阿斯顿·张等强强联合之作！机器学习、深度学习、AI领域重磅教程！ deepseek机器学习（异步图书出品）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/SYuWnohDt85Rrn2WhZP0zZgU_3QWdiz1QctyySYQ7B0.html</t>
+    <t>https://jingfen.jd.com/detail/SYuWnohDt85R6ESkMZPMPtVn_3QWdiz1QctyySYQ7B0.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/57568/3/23228/192432/63db2ffbF904616b1/e47033e148934da9.jpg</t>
@@ -873,13 +906,13 @@
     <t>2.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODGJ34</t>
+    <t>https://u.jd.com/GGD0AUi</t>
   </si>
   <si>
     <t>中国哲学简史（彩图精装本）哲学家冯友兰畅销七十年的经典 中国哲学入门读物 涂又光翻译</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKyBfpghmltNeeb_3klNtUvm52DD82SdtC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2YKygLMhGmlFiLrU_3klNtUvm52DD82SdtC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58943/21/22180/127249/64803ae8F6d0e0316/5ef28ac997a06b2e.jpg</t>
@@ -891,13 +924,13 @@
     <t>2.86</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODwkTI</t>
+    <t>https://u.jd.com/GODDt0F</t>
   </si>
   <si>
     <t>枪炮 病菌与钢铁 2022版本 贾雷德戴蒙德著 赠解读本 崩溃 剧变 昨日之前的世界 第三种黑猩猩 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3MTisFDGFSWDK4_3paYfDqqIlTTet1gQr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlk3MsGdTUGFdjZOV_3paYfDqqIlTTet1gQr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/85104/3/28435/196787/62b91bcdE306c51a6/cc51a0f83bf63d72.jpg</t>
@@ -909,13 +942,13 @@
     <t>2.67</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1DaXXH</t>
+    <t>https://u.jd.com/GGDSZiK</t>
   </si>
   <si>
     <t>全套4册 人类简史+时间简史+相对论+物种起源自然科学启蒙天文学宇宙百科书籍 生物学遗传学自然科学</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/uq5161miAPaMEVe2xEx7Ymdn_3fgGndXpsAOOyFQmm2.html</t>
+    <t>https://jingfen.jd.com/detail/uq5161miAPaMNrZfZExijO7B_3fgGndXpsAOOyFQmm2.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/40021/21/29922/58439/65445044Fff0d9539/9c6b503dc969e613.jpg</t>
@@ -927,13 +960,13 @@
     <t>8.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDD6f6Z</t>
+    <t>https://u.jd.com/GrDPQRD</t>
   </si>
   <si>
     <t>金钱心理学 全球狂销超300万册，美国亚马逊理财类No.1，你和金钱的关系，决定了财富和你的距离！财务自由指南</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/goTyV1rMdbIPh9G1gikdNmIa_3yuxuQosCdQQgospEs.html</t>
+    <t>https://jingfen.jd.com/detail/goTyV1rMdbIKjgai8ipzj0h3_3yuxuQosCdQQgospEs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/98128/26/35155/148724/6479b9a6F28f0eac0/e99e32d25cf5b977.jpg</t>
@@ -948,13 +981,13 @@
     <t>3.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1Dvd4K</t>
+    <t>https://u.jd.com/GDDn3Ro</t>
   </si>
   <si>
     <t>纳瓦尔宝典 财富与幸福指南 纳瓦尔智慧箴言录 巴拉吉预言 埃里克乔根森 著 樊登作序推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPepSxk2883Vtgmj0_6qw81ZBzwpXwqvC0WJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeflgge3b7fs0C_6qw81ZBzwpXwqvC0WJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/47246/22/17816/151164/62898f0bEc4dec9c1/8b811c3129fd3eef.jpg</t>
@@ -966,13 +999,13 @@
     <t>1.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDadEL</t>
+    <t>https://u.jd.com/GDDPzaR</t>
   </si>
   <si>
     <t>百万畅销书 穷查理宝典 全新口袋本 查理芒格智慧精要 价值投资 人生哲学 人生智慧 巴菲特 芒格之道 伯克希尔公司</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bYUNdq5BjTQRs3_3tyFQIkYHFWWhQLIOI.html</t>
+    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bYuz03oBjtsaJf_3tyFQIkYHFWWhQLIOI.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/232771/27/34819/84850/67bd8266Ff1d89c83/08c7fabb10ada627.jpg</t>
@@ -984,13 +1017,13 @@
     <t>1.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DqpnG</t>
+    <t>https://u.jd.com/GODvdbO</t>
   </si>
   <si>
     <t xml:space="preserve">原则 如何创造出完美独特的自己 百万级畅销书 桥水创始人瑞 达利欧 白手起家的全成功方案 半个金融圈都在读 </t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavDwucyCV84OGSz_3SD7M73mavggQ9D0SH.html</t>
+    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavDDEGR2V8kdcfL_3SD7M73mavggQ9D0SH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/103816/34/29119/84199/6284d9ddE55566bc2/5ce0dca008517992.jpg</t>
@@ -1002,13 +1035,13 @@
     <t>2.61</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODzYC9</t>
+    <t>https://u.jd.com/G1D1KZ6</t>
   </si>
   <si>
     <t>【包邮】被讨厌的勇气 自我启发之父阿德勒的哲学课 心理学入门畅销书籍</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JSbI1EiyJnXIKAMAJZFVQMLC_cIOf4YE6o1Y4JSQ8Hr.html</t>
+    <t>https://jingfen.jd.com/detail/JSbI1EiyJnXNcIgSuZE30gZs_cIOf4YE6o1Y4JSQ8Hr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/211627/9/43196/116689/6730b83aF0f649b6d/35e719e16d430a81.jpg</t>
@@ -1023,13 +1056,13 @@
     <t>1.19</t>
   </si>
   <si>
-    <t>https://u.jd.com/GaDSanU</t>
+    <t>https://u.jd.com/GGDaJ9m</t>
   </si>
   <si>
     <t>唐诗三百300首正版全集 注释 译文 中国诗词大全古代古典诗词书籍 中国人财保险承保【假一赔十】 无障碍阅读国学经典：唐诗三百首</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTSE18DrtEr8pUm_364tk8oMXUYZqjtSkj.html</t>
+    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTSeFHyxtERo46g_364tk8oMXUYZqjtSkj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/151375/35/18798/97811/665f127bF65b05381/21fff6c36bf9caac.jpg</t>
@@ -1044,10 +1077,10 @@
     <t>15.60</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDGVRO</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DnKXI</t>
+    <t>https://u.jd.com/GgDjYkq</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/G1DPnt7</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,147 +1489,147 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1628,7 +1661,7 @@
         <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1642,1305 +1675,1369 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>82</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" t="s">
+      <c r="I12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="I16" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" t="s">
-        <v>122</v>
-      </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
         <v>126</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>131</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
         <v>132</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>133</v>
       </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>135</v>
-      </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="I19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" t="s">
-        <v>142</v>
-      </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
         <v>145</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
         <v>146</v>
       </c>
-      <c r="E20" t="s">
+      <c r="J20" t="s">
         <v>147</v>
-      </c>
-      <c r="F20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
         <v>150</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
         <v>151</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
         <v>152</v>
       </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" t="s">
-        <v>155</v>
-      </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
         <v>159</v>
       </c>
-      <c r="F22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>160</v>
       </c>
-      <c r="I22" t="s">
-        <v>161</v>
-      </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
         <v>162</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>163</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
         <v>164</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
         <v>165</v>
       </c>
-      <c r="F23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>166</v>
       </c>
-      <c r="H23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" t="s">
-        <v>168</v>
-      </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
         <v>169</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" t="s">
         <v>172</v>
       </c>
-      <c r="F24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" t="s">
-        <v>174</v>
-      </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" t="s">
-        <v>177</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" t="s">
         <v>178</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>179</v>
       </c>
-      <c r="G25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" t="s">
-        <v>182</v>
-      </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
         <v>184</v>
       </c>
-      <c r="B26" t="s">
+      <c r="I26" t="s">
         <v>185</v>
       </c>
-      <c r="C26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" t="s">
-        <v>189</v>
-      </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
-        <v>193</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="J27" t="s">
         <v>194</v>
-      </c>
-      <c r="H27" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s">
         <v>197</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
         <v>198</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
         <v>199</v>
       </c>
-      <c r="D28" t="s">
+      <c r="I28" t="s">
         <v>200</v>
       </c>
-      <c r="E28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" t="s">
-        <v>203</v>
-      </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
         <v>204</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
         <v>205</v>
       </c>
-      <c r="C29" t="s">
+      <c r="H29" t="s">
         <v>206</v>
       </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>207</v>
       </c>
-      <c r="F29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" t="s">
-        <v>209</v>
-      </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" t="s">
         <v>210</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>211</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>212</v>
       </c>
-      <c r="D30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
         <v>213</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>214</v>
       </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s">
-        <v>215</v>
-      </c>
-      <c r="I30" t="s">
-        <v>216</v>
-      </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
         <v>218</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
         <v>219</v>
       </c>
-      <c r="C31" t="s">
+      <c r="I31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>221</v>
-      </c>
-      <c r="F31" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" t="s">
-        <v>225</v>
-      </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" t="s">
         <v>227</v>
       </c>
-      <c r="B32" t="s">
+      <c r="J32" t="s">
         <v>228</v>
-      </c>
-      <c r="C32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" t="s">
-        <v>233</v>
-      </c>
-      <c r="I32" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>234</v>
+      </c>
+      <c r="H33" t="s">
         <v>235</v>
       </c>
-      <c r="B33" t="s">
+      <c r="I33" t="s">
         <v>236</v>
       </c>
-      <c r="C33" t="s">
+      <c r="J33" t="s">
         <v>237</v>
-      </c>
-      <c r="D33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>241</v>
-      </c>
-      <c r="I33" t="s">
-        <v>242</v>
-      </c>
-      <c r="J33" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
         <v>244</v>
       </c>
-      <c r="B34" t="s">
+      <c r="I34" t="s">
         <v>245</v>
       </c>
-      <c r="C34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>247</v>
-      </c>
-      <c r="F34" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>249</v>
-      </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" t="s">
         <v>250</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>251</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
         <v>252</v>
       </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>253</v>
       </c>
-      <c r="F35" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>254</v>
-      </c>
-      <c r="I35" t="s">
-        <v>255</v>
-      </c>
-      <c r="J35" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
         <v>256</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>257</v>
-      </c>
-      <c r="C36" t="s">
-        <v>258</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
         <v>259</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>260</v>
       </c>
-      <c r="G36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H36" t="s">
-        <v>262</v>
-      </c>
-      <c r="I36" t="s">
-        <v>263</v>
-      </c>
       <c r="J36" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
         <v>265</v>
       </c>
-      <c r="B37" t="s">
+      <c r="I37" t="s">
         <v>266</v>
       </c>
-      <c r="C37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" t="s">
-        <v>271</v>
-      </c>
-      <c r="I37" t="s">
-        <v>272</v>
-      </c>
       <c r="J37" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
         <v>279</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>280</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>281</v>
       </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>282</v>
       </c>
-      <c r="F39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>283</v>
       </c>
-      <c r="I39" t="s">
-        <v>284</v>
-      </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" t="s">
         <v>285</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>286</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
         <v>287</v>
       </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
         <v>288</v>
       </c>
-      <c r="F40" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>289</v>
       </c>
-      <c r="I40" t="s">
-        <v>290</v>
-      </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" t="s">
         <v>291</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>292</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
         <v>293</v>
       </c>
-      <c r="D41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
         <v>294</v>
       </c>
-      <c r="F41" t="s">
-        <v>294</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>295</v>
       </c>
-      <c r="I41" t="s">
-        <v>296</v>
-      </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
         <v>297</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
         <v>299</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
         <v>300</v>
       </c>
-      <c r="F42" t="s">
-        <v>300</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>301</v>
       </c>
-      <c r="I42" t="s">
-        <v>302</v>
-      </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" t="s">
         <v>303</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>304</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
         <v>305</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
         <v>306</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>307</v>
       </c>
-      <c r="F43" t="s">
-        <v>307</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I43" t="s">
-        <v>309</v>
-      </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" t="s">
         <v>310</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
         <v>311</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
         <v>312</v>
       </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="I44" t="s">
         <v>313</v>
       </c>
-      <c r="F44" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s">
-        <v>314</v>
-      </c>
-      <c r="I44" t="s">
-        <v>315</v>
-      </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
         <v>316</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>317</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>318</v>
       </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
         <v>319</v>
       </c>
-      <c r="F45" t="s">
-        <v>319</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>320</v>
       </c>
-      <c r="I45" t="s">
-        <v>321</v>
-      </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" t="s">
         <v>322</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>323</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
         <v>324</v>
       </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
         <v>325</v>
       </c>
-      <c r="F46" t="s">
-        <v>325</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>326</v>
       </c>
-      <c r="I46" t="s">
-        <v>327</v>
-      </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" t="s">
         <v>328</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>329</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" t="s">
         <v>330</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
         <v>331</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>332</v>
       </c>
-      <c r="F47" t="s">
-        <v>332</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s">
-        <v>333</v>
-      </c>
-      <c r="I47" t="s">
-        <v>334</v>
-      </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="s">
         <v>335</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
         <v>336</v>
       </c>
-      <c r="C48" t="s">
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="D48" t="s">
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s">
+        <v>342</v>
+      </c>
+      <c r="E49" t="s">
+        <v>343</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I49" t="s">
+        <v>345</v>
+      </c>
+      <c r="J49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>346</v>
+      </c>
+      <c r="B50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>340</v>
-      </c>
-      <c r="I48" t="s">
-        <v>341</v>
-      </c>
-      <c r="J48" t="s">
-        <v>342</v>
+      <c r="E50" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>351</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/excelFiles/商品清单.xlsx
+++ b/excelFiles/商品清单.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="商品信息" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="420">
   <si>
     <t>商品名称</t>
   </si>
@@ -51,55 +59,301 @@
     <t>优惠券领取链接</t>
   </si>
   <si>
-    <t>【自营正版】deepseek实用操作指南 李尚龙清华大学 2025 入门、搜索、答疑、写作 deepseek使用教程 ai时代生存手册 零基础掌握deepseek 从入门到精通deepseek教程自营</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/czqr8K6W8htY7PsqKTrCDn7A_336URiE1t8FCkOSHPB.html</t>
+    <t>全套3册 四季养生粥膳 饮食营养与健康百病食疗百科书正版书籍儿童食谱彩图加厚版中医药膳学四季经络艾灸书养颜指南家庭健康 3册养生粥+药汤粥膳+五谷杂粮 +五谷杂粮</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/R0kllLWzaCWdBKS7vp15rgAB_3OPK6QbvGaEtL8f4uH.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/184324/5/38233/123356/650968c2F73de004a/db1e5ada23149fde.jpg</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>68.72</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>15.12</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6GIYmlA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>特步（XTEP）卷腹机美腰家用仰卧起坐男女士健腹器室内多功能收腹运动健身器材</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/JSbI1EiyJnlzHDhZS7pXKhS9_cIOf4YE6o1YSwuMzNr.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/171170/40/47381/119556/66f2ad28F37acb5d0/b75d9c215a6155eb.jpg</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>299.00</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>14.95</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIEpn4</t>
+  </si>
+  <si>
+    <t>做自己的心理医生情绪控制方法焦虑心理学自控力心理健康入门书 做自己的心理医生+情绪控制方法</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/xlfJ15R9Uox5f3rC0XlTRj1B_364tk8oMXUYZnLzWpj.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/221303/19/43280/89369/666dd99bF637c1eff/65cfd055cabba7b2.jpg</t>
+  </si>
+  <si>
+    <t>74.90</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DITrsV</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OIS0KA</t>
+  </si>
+  <si>
+    <t>吃好每天三3顿饭 食在好吃系列 一日三餐巧安排 轻轻松松健康来 孙志慧著早餐午餐晚餐家常菜菜谱书 美食食谱  美食食谱</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/SYuWnohDt8dqq7nJg4a9vH6I_3QWdiz1Qct2owTxug0.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/177626/13/30922/184033/64462dd3Fcb22e453/6025d60da3959fd1.jpg</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61I1NQs</t>
+  </si>
+  <si>
+    <t>预订台版 150道家常晚餐菜做菜饮食健康营养美食家常菜谱菜单料理食谱</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuYRl1yMUySEdvD0_3ghOcn8VRGSC5oN2SB.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/118307/15/386/217545/5e8c2b1aEd23ebb7c/d066e843a2259094.jpg</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61IBsBS</t>
+  </si>
+  <si>
+    <t>小米（MI）Xiaomi Buds 5 Pro 入耳式降噪蓝牙耳机 小米15ultra搭档 小米华为苹果手机通用 钛光金</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/PI2jDhCX3lS5uT2k8rYVcSJC_3ERAOfN253iq6GTWja.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/261032/17/25277/43879/67c043fcF958e04fa/ed3f5fdb21d022dd.jpg</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>1299.00</t>
+  </si>
+  <si>
+    <t>1289.00</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>38.67</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6GIWGxk</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIrc4L</t>
+  </si>
+  <si>
+    <t>相册薄影集成长纪念册家庭相册本6寸大容量diy插页式照片收纳册情侣塑封混装 全6寸600张 【平安喜乐】礼盒90%人购买</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/HKfVeLgCwzCZjWxg1cJJD7C9_3XCy3bvCXw6d5leKdy.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/228024/39/32393/259971/675d61aaF87d8b5d4/878ff621279102ca.jpg</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>94.44</t>
+  </si>
+  <si>
+    <t>83.44</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OI3Kml</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIlujk</t>
+  </si>
+  <si>
+    <t>大疆（DJI）AIR 3s 无人机航拍旅拍1英寸新手入门高清图传专业智能全向避障双摄长焦超长续航广角 大疆air3s 畅飞三电套装(带屏遥控器) 官方标配（无内存卡） 官方标配 官方标配1 送【65w</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/LDgHDXi05soePSQacQg4pCaY_3MqeHvWi75fcNDHB3L.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/252748/14/24891/129545/67bb6797F5e1ab406/dac026d0676e0edb.jpg</t>
+  </si>
+  <si>
+    <t>9988.00</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>99.88</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIPSNb</t>
+  </si>
+  <si>
+    <t>星特朗美国品牌天文望远镜80DX高清高倍大口径专业观星观景儿童送礼首选</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9XI3qHUHxKHgj52_3UIh70AdRVss0RUbzs.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/258867/33/25331/93486/67bff128F93b089d7/7af243ed456ebf78.jpg</t>
+  </si>
+  <si>
+    <t>799.00</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61Ia9T6</t>
+  </si>
+  <si>
+    <t>全景人体奥秘百科彩图典藏版写给儿童的百科全书 小学生科普读物课外书读物 课外书读物</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/jvZ5IpphSW6Kb3hnWHmEXGXy_3525UfJYSSOM56D8J2.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/82135/14/8308/327423/5d662ed2E62b07d49/f7d2ceacf2d5dd5c.jpg</t>
+  </si>
+  <si>
+    <t>46.06</t>
+  </si>
+  <si>
+    <t>9.21</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rI3BK9</t>
+  </si>
+  <si>
+    <t>刘心武妙品红楼梦（精装 全5册）王芳直播推荐 十点读书推荐 百余年《红楼梦》未解之谜全揭秘</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/uq5161miAP2HSvKEDD8xyALN_3fgGndXpsAOOuqUpn2.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/142351/3/8944/310922/5f69736aE5b8048d2/e9b5ae1385da1524.jpg</t>
+  </si>
+  <si>
+    <t>146.02</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIcqEC</t>
+  </si>
+  <si>
+    <t>【自营正版】deepseek实用操作指南 李尚龙清华大学 2025 deep seek实用操作指南 deepseek使用教程 ai时代生存手册 零基础掌握deepseek 从入门到精通 deepsee</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/czqr8K6W8hf08G9QA0sHSFCK_336URiE1t8FCkOSHPB.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/235596/27/30378/120411/67bc2878Fe2b4e87b/76c7f4711d68833a.jpg</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>39.80</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>7.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDnXGT</t>
-  </si>
-  <si>
-    <t/>
+    <t>https://u.jd.com/6GI3Ptt</t>
   </si>
   <si>
     <t>【自营包邮】DeepSeek实用操作指南 : 入门 搜索 答疑 写作  畅销书 李尚龙新作人工智能 大模型交互 零基础掌握 AI办公图书 从零到一学会deepseek</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/kbKetp2dxEeTyeLhnARKtsOC_385VheJMPxBBkh3UVw.html</t>
+    <t>https://jingfen.jd.com/detail/kbKetp2dxEgiH4EEI9orE5ya_385VheJMPxBBkh3UVw.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/263036/37/23951/79147/67bbd7c8F4dbb52c3/f9f345d570611d59.jpg</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>1.59</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6D3My2</t>
+    <t>https://u.jd.com/61IBDs5</t>
   </si>
   <si>
     <t>现在你受的苦必将照亮你未来的路青春文学人生规划成长自律书籍 现在你受的苦必将照亮你未来的</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/OUuMzbenCG6BcnmO6HnTHUg2_3RTWqXQ4VCJMjIxsIH.html</t>
+    <t>https://jingfen.jd.com/detail/OUuMzbenCGaSVvr7qEdiMDN9_3RTWqXQ4VCJMjIxsIH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/167867/12/42594/63441/66701377F722157f6/fc824057a8b60830.jpg</t>
@@ -111,22 +365,19 @@
     <t>19.90</t>
   </si>
   <si>
-    <t>40.1</t>
-  </si>
-  <si>
     <t>7.98</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DRs4e</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDvXmg</t>
+    <t>https://u.jd.com/6aI2fpj</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6aIriKN</t>
   </si>
   <si>
     <t>【严选】你越强大世界越公平青春成功励志类文学书籍人生规划追求内在 你越强大世界越公平</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/YSr8XbIj0VcLLpW8QCX3tuHr_391fbKJeZ01HNbHZqV.html</t>
+    <t>https://jingfen.jd.com/detail/YSr8XbIj0VeaA0jD6AtuOHmm_391fbKJeZ01HNbHZqV.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/229282/17/19059/90051/6667ad0fF00de0cf2/52e81065f66e2277.jpg</t>
@@ -144,574 +395,526 @@
     <t>5.37</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODvk1e</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GaDTGbu</t>
-  </si>
-  <si>
-    <t>【官方正版 京东配送】大众哲学 写给大众的入门级通俗哲学经典，适合大众阅读的入门级哲学著作，改变中国命运的时代经典巨著</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/TAa2hBNS4yQARjBNVoBgpn82_31Q6Kvn8p4Gd01ISks.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t13909/55/480482780/144785/11a6b260/5a0cf211Nf4e8d547.jpg</t>
-  </si>
-  <si>
-    <t>31.88</t>
+    <t>https://u.jd.com/66IB4Nb</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gI2M0d</t>
+  </si>
+  <si>
+    <t>正版包邮 3册 资本论+国富论+博弈论 一本彻底改变了20世纪人类命运的书推动世界的十大思想著作之一哲学入门书籍 【3册】资本论+国富论+博弈论 保证正版-现货速发</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9UtaIkTlGTeEI7aE_3cvPzVnUx9sSwgfdjp.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/261316/24/3990/77544/676e56b7F8ba41889/69df33bf9286ea0b.jpg</t>
+  </si>
+  <si>
+    <t>49.80</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>7.47</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIjvUh</t>
+  </si>
+  <si>
+    <t>社交恐惧心理学打破负面正确认知自我人际交往心理学书籍 微表情心理学</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/ogPBGXQsY0HqPsY0xlXQ6aRl_3rtcLE59fYVmtLNK3j.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/233001/10/18692/95993/6670f006Fe6a1c1cb/c42bf5868185062c.jpg</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66IZVAS</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gIrocl</t>
+  </si>
+  <si>
+    <t>底层逻辑 认知觉醒 自我认知深度改变思维刻意练习 成功励志书籍 自我认知深度改变思维 人与人拉开差距的思维模式帮你轻松对抗无序的人生 全2册底层逻辑+认知觉醒</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINKHkB25FmHdzdmH_3ioM2CBSxITLML93UG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/219895/6/25331/108021/64634751F234e10f5/d8c6ac9c9abcd3c8.jpg</t>
+  </si>
+  <si>
+    <t>53.40</t>
+  </si>
+  <si>
+    <t>10.68</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6aIyLdq</t>
+  </si>
+  <si>
+    <t>人文与社会译丛：文化的解释（新版）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/82IB57cr2Y3hlfG6gGnPNCGv_3klNtUvm52DD82EmWC.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/35170/36/9205/486450/5ccf9d82E4323c17f/72c0e343e22b6272.jpg</t>
+  </si>
+  <si>
+    <t>56.77</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIypaH</t>
+  </si>
+  <si>
+    <t>万古江河:中国历史文化的转折与开展（2023版）史学大家许倬云经典之作、 19年清华校长赠送新生之书</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/jvZ5IpphSW6KWG4gNHmxx7A2_3525UfJYSSVVjvYIk2.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/224866/9/25331/23330/66cee726F12ef1260/25d9785fc74e9147.jpg</t>
+  </si>
+  <si>
+    <t>46.80</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIJEiC</t>
+  </si>
+  <si>
+    <t>中国历史年表（精）中华书局</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPeapcEzSc72yCvqA_6qw81ZBzwpXwqvFTLJ.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/139796/27/12458/183106/5f97c1dcE1b6de15e/8f2489f82b2c6cc2.jpg</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OIAjLf</t>
+  </si>
+  <si>
+    <t>【精选】全3册用钱赚钱书思考致富格局决定结局金融类书籍理财类钱去哪了财富自由投资理财书籍通向财富自由之路自我实现 用钱赚钱</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/R0kllLWzaCWdO0rJxp1db9iC_3OPK6QbvGaEtjFJYJH.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/233600/3/249/57328/6530fb87F8d8c5b33/69d4ca8b5f53010b.jpg</t>
+  </si>
+  <si>
+    <t>49.60</t>
+  </si>
+  <si>
+    <t>19.60</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6aIW5np</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gIPVcp</t>
+  </si>
+  <si>
+    <t>【新版】股市天经：量波逮涨停 黑马王子投资理财入门宝典</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/GJxdmuStJAVbPapGGvNa6euG_3CVJIOf5tJnnGJiyw6.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/57766/34/19857/96907/62b95750E3fce2659/081d7d250f48f883.jpg</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6GIDY6N</t>
+  </si>
+  <si>
+    <t>价值投资慢思考 孙善军 投资策略指南新手小白入门基础知识理财投资书籍 中国人民大学出版社 9787300333731  价值投资慢思考</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/UOWEn2A5sFbEj5KbaBkG83s9_309lpmZGHsoOBN2uUi.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/265963/9/19294/99012/67aeb6f8F59c7363d/56bf7914f0ee7641.jpg</t>
+  </si>
+  <si>
+    <t>61.38</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIZC4T</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OIRfrb</t>
+  </si>
+  <si>
+    <t>自由与权利/世界历史名篇译读</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuYR4bYenySxXVhz_3ghOcn8VRGApodUG5B.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t17263/182/1271172481/143692/97c52e28/5ac334aeN6b42cafd.jpg</t>
+  </si>
+  <si>
+    <t>31.52</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6GIndEi</t>
+  </si>
+  <si>
+    <t>星牌（XING PAI）台球杆小头中式黑八台球杆斯诺克球杆中式八球球杆桌球杆手工 裸杆无配件</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/6vVW1usyzfABjyDrqORei2rv_sweEZ0ULVBzoJyNypN.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/259372/35/446/98268/676438a3F62dd8104/c77f602321bc9634.jpg</t>
+  </si>
+  <si>
+    <t>1578.00</t>
+  </si>
+  <si>
+    <t>1340.20</t>
+  </si>
+  <si>
+    <t>13.40</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66I2jw8</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6aI3knV</t>
+  </si>
+  <si>
+    <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynS9APd3hngQbfy2c_3df4CvRYonPPiwge3s.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>51.80</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61IPlbB</t>
+  </si>
+  <si>
+    <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPeapi9nkZ72bM7Jd_6qw81ZBzwpas7mJdAJ.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
+  </si>
+  <si>
+    <t>29.70</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gIaIz6</t>
+  </si>
+  <si>
+    <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/teKBEXw3McD7kvZyQ2LQ7QhA_3hj3gPIsKM8enmaVrm.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>132.24</t>
+  </si>
+  <si>
+    <t>26.45</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61Ilpkf</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIBxGH</t>
+  </si>
+  <si>
+    <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDZGgjoN35FQ2zm9_327oyi9KipMMbkCpSL.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
+  </si>
+  <si>
+    <t>93.80</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gI2NwC</t>
+  </si>
+  <si>
+    <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/iwUrWNVynS9ApeQfogQtFo3y_3df4CvRYonPPiwXLus.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>42.80</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66INgF0</t>
+  </si>
+  <si>
+    <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/ATTZPNO2qLsQdxvZERfS7M6e_3WEwxubtXqttATdNOS.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6GIroCb</t>
+  </si>
+  <si>
+    <t>我的情绪为何总被他人左右</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDZGmPrdg5Fx0QYz_327oyi9KipKwz6KYxL.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
+  </si>
+  <si>
+    <t>56.88</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66IEqO7</t>
+  </si>
+  <si>
+    <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/zcfJkV4J63iat5LG9IwpPhWw_3nmueRrZb6CAiL5DAe.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61IfLOo</t>
+  </si>
+  <si>
+    <t>睡个好觉：斯坦福高效睡眠法</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINKHvMTc1mHsc5b0_3ioM2CBSxIEEdaLrqG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
+  </si>
+  <si>
+    <t>32.40</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OIB77Q</t>
+  </si>
+  <si>
+    <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rptlEAbcWhzpfm5_3sdbW6MKR7eR59AwZp.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DI2LgW</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIYUWe</t>
+  </si>
+  <si>
+    <t>爱的艺术（弗洛姆作品系列）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/qu2QD3BY7rptKCO42WhJvhAl_3sdbW6MKR7UUquPPap.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIE5gi</t>
+  </si>
+  <si>
+    <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/JCiqFVuIiwMzarkuxkB9V4M0_3JKSTosM3iXFJLldkw.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
+  </si>
+  <si>
+    <t>34.35</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6aIB8Fr</t>
+  </si>
+  <si>
+    <t>蛤蟆先生去看心理医生</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/daMwkoPvINKH05me7mHNHUq6_3ioM2CBSxIEEdaFMRG.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
+  </si>
+  <si>
+    <t>15.83</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gIl63n</t>
+  </si>
+  <si>
+    <t>非暴力沟通 （修订版）</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/0R8MFfMoV9XIugjB9xKEqHaf_3UIh70AdRVss0RWlzs.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
+  </si>
+  <si>
+    <t>35.88</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66INmeC</t>
+  </si>
+  <si>
+    <t>PICOOC有品智能体脂秤体重秤充电家用电子秤测人体数据脂肪秤减肥体脂称Mini-C生日礼物礼品送男女友</t>
+  </si>
+  <si>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qziNo7iq3cr2LIX_3FGg4Cjtl1jddA54fb.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/261336/39/25321/131894/67c00981F7203a3ab/452a89430108069f.jpg</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDBPR3</t>
-  </si>
-  <si>
-    <t>正版包邮 3册 资本论+国富论+博弈论 一本彻底改变了20世纪人类命运的书推动世界的十大思想著作之一哲学入门书籍 【3册】资本论+国富论+博弈论 保证正版-现货速发</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U26MzBVDDbDYg9Q_3cvPzVnUx9sSwgfdjp.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/261316/24/3990/77544/676e56b7F8ba41889/69df33bf9286ea0b.jpg</t>
-  </si>
-  <si>
-    <t>49.80</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>7.47</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DS1G1</t>
-  </si>
-  <si>
-    <t>社交恐惧心理学打破负面正确认知自我人际交往心理学书籍 微表情心理学</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/ogPBGXQsY0D5PTbCE21QNJn4_3rtcLE59fYVmtLNK3j.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/233001/10/18692/95993/6670f006Fe6a1c1cb/c42bf5868185062c.jpg</t>
-  </si>
-  <si>
-    <t>7.18</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODHk2d</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDEyWx</t>
-  </si>
-  <si>
-    <t>底层逻辑 认知觉醒 自我认知深度改变思维刻意练习 成功励志书籍 自我认知深度改变思维 人与人拉开差距的思维模式帮你轻松对抗无序的人生 全2册底层逻辑+认知觉醒</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAvIvAMeAsrWO2_3ioM2CBSxITLML93UG.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/219895/6/25331/108021/64634751F234e10f5/d8c6ac9c9abcd3c8.jpg</t>
-  </si>
-  <si>
-    <t>53.40</t>
-  </si>
-  <si>
-    <t>10.68</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GaDH0YJ</t>
-  </si>
-  <si>
-    <t>人文与社会译丛：文化的解释（新版）</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKygL9olmlFiYta_3klNtUvm52DD82EmWC.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/35170/36/9205/486450/5ccf9d82E4323c17f/72c0e343e22b6272.jpg</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>50.06</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDDqA3</t>
-  </si>
-  <si>
-    <t>万古江河:中国历史文化的转折与开展（2023版）史学大家许倬云经典之作、 19年清华校长赠送新生之书</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/jvZ5IpphSW06oVzxQfHC2AJt_3525UfJYSSVVjvYIk2.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/224866/9/25331/23330/66cee726F12ef1260/25d9785fc74e9147.jpg</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>50.70</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G6DRsIx</t>
-  </si>
-  <si>
-    <t>中国历史年表（精）中华书局</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeLyiam3bE8eW9_6qw81ZBzwpXwqvFTLJ.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/139796/27/12458/183106/5f97c1dcE1b6de15e/8f2489f82b2c6cc2.jpg</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODBPFN</t>
-  </si>
-  <si>
-    <t>【精选】全3册用钱赚钱书思考致富格局决定结局金融类书籍理财类钱去哪了财富自由投资理财书籍通向财富自由之路自我实现 用钱赚钱</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/R0kllLWzaCuTIA4C5UisnwaL_3OPK6QbvGaEtjFJYJH.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/233600/3/249/57328/6530fb87F8d8c5b33/69d4ca8b5f53010b.jpg</t>
-  </si>
-  <si>
-    <t>49.60</t>
-  </si>
-  <si>
-    <t>19.60</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrDrHL0</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GaDabxL</t>
-  </si>
-  <si>
-    <t>【新版】股市天经：量波逮涨停 黑马王子投资理财入门宝典</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/GJxdmuStJABSBCVWibt2dFki_3CVJIOf5tJnnGJiyw6.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/57766/34/19857/96907/62b95750E3fce2659/081d7d250f48f883.jpg</t>
-  </si>
-  <si>
-    <t>58.70</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDn8oy</t>
-  </si>
-  <si>
-    <t>价值投资慢思考 孙善军 投资策略指南新手小白入门基础知识理财投资书籍 中国人民大学出版社 9787300333731  价值投资慢思考</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/UOWEn2A5sFSiIRBc8rDtEjpG_309lpmZGHsoOBN2uUi.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/265963/9/19294/99012/67aeb6f8F59c7363d/56bf7914f0ee7641.jpg</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>61.38</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>4.91</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDvc8O</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrDN1BO</t>
-  </si>
-  <si>
-    <t>自由与权利/世界历史名篇译读</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/yrQ0ZpZOGuE1MnV2GaIpZYkC_3ghOcn8VRGApodUG5B.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t17263/182/1271172481/143692/97c52e28/5ac334aeN6b42cafd.jpg</t>
-  </si>
-  <si>
-    <t>31.52</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDry2f</t>
-  </si>
-  <si>
-    <t>星牌（XING PAI）台球杆小头中式黑八台球杆斯诺克球杆中式八球球杆桌球杆手工 裸杆无配件</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/6vVW1usyzfC4oYqeyBN8IOeV_sweEZ0ULVBzoJyNypN.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/259372/35/446/98268/676438a3F62dd8104/c77f602321bc9634.jpg</t>
-  </si>
-  <si>
-    <t>1578.00</t>
-  </si>
-  <si>
-    <t>1355.20</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODPtEn</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDSUeq</t>
-  </si>
-  <si>
-    <t>思考 快与慢 2002诺贝尔经济学奖得主 丹尼尔 卡尼曼经典作品 罗辑思维罗振宇 何帆 巴曙松推荐 中信出版社</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjdwbyjTNuBQ3rW_3df4CvRYonPPiwge3s.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/91777/30/27412/100444/625541d6E6fb43e3d/e44b84470460d82b.jpg</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>44.80</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DSrgD</t>
-  </si>
-  <si>
-    <t>成功法则正版书籍 成者为王百炼成钢 战胜困境的成功法则走向卓越的智慧之道 信念力担当力目标感适应力 成功法则  成功法则</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPeperv2Y23bzpmuR_6qw81ZBzwpas7mJdAJ.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/58135/26/25153/77563/66b4777dF8aca3818/8ca610f6f6e3e116.jpg</t>
-  </si>
-  <si>
-    <t>29.70</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G6Dvyn7</t>
-  </si>
-  <si>
-    <t>碳中和经济学 中金公司研究部著翔实解读中国实现碳达峰碳中和的有效路径与具体措施把握行业挑战绿色投资机遇科技创新趋势</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/teKBEXw3MciIJGim3IqwCxzK_3hj3gPIsKM8enmaVrm.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/216727/30/42046/92430/66539314F4e18f460/a9478dcbb4e3d1c5.jpg</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>132.24</t>
-  </si>
-  <si>
-    <t>26.45</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G6DrK1v</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODgkPl</t>
-  </si>
-  <si>
-    <t>亲密关系（第6版）百科全书式的两性心理专著，社会心理学精品译丛书系，豆瓣9.3分，津巴多和彭凯平专文推荐</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJ3OYePXZJ4GRD_327oyi9KipMMbkCpSL.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1447/126/856470644/203409/d6f351d1/55af2c11Nc81edc4a.jpg</t>
-  </si>
-  <si>
-    <t>88.32</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GaDD4Qu</t>
-  </si>
-  <si>
-    <t>当下的力量（白金版）张德芬推荐 埃克哈特托利经典之作 具有影响力的心灵经典 中信出版社</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/iwUrWNVynSjdwWi5FNuBv2oN_3df4CvRYonPPiwXLus.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/82430/23/21019/169856/63085635E573734ec/245dbfc9cf23c5a6.jpg</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>38.30</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgD09nQ</t>
-  </si>
-  <si>
-    <t>创新者的窘境（珍藏版）全球畅销20余年 传世管理经典 创新之父 管理大师 克莱顿·克里斯坦森 著 领先企业如何被新兴企业颠覆 破坏性创新 企业家 创业者</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/ATTZPNO2qLMNmElkekcVfCCE_3WEwxubtXqttATdNOS.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/115597/18/29045/146145/630884e7Efe78c2eb/731cb6c37bf4e51c.jpg</t>
-  </si>
-  <si>
-    <t>44.10</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrD2TJy</t>
-  </si>
-  <si>
-    <t>我的情绪为何总被他人左右</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJpxzmbXZ1noNa_327oyi9KipKwz6KYxL.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/252375/33/11123/119408/677e55a0Ff428a181/ae18b07d08a7df79.jpg</t>
-  </si>
-  <si>
-    <t>56.88</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDHOXi</t>
-  </si>
-  <si>
-    <t>人类的未来 移民火星、星际旅行、永生以及人类在地球之外的命运</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/zcfJkV4J63Yyciacxyg1FHeZ_3nmueRrZb6CAiL5DAe.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/131449/23/6442/26870/5f2e5ff8E37940b80/a075c965c110d7a4.jpg</t>
-  </si>
-  <si>
-    <t>30.22</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>1.81</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrDAGMc</t>
-  </si>
-  <si>
-    <t>睡个好觉：斯坦福高效睡眠法</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAlF6DXeAhmOGV_3ioM2CBSxIEEdaLrqG.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/224693/33/4455/130450/655dc741F7244f4b2/b1c7581c6f35f0ce.jpg</t>
-  </si>
-  <si>
-    <t>33.86</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrDTMuK</t>
-  </si>
-  <si>
-    <t>正版旧书你的降落伞是什么颜色？ (美)理查德·尼尔森·鲍利斯　著，李春雨，王鹏程，陈雁　译 中国华侨出版社 9787511346544</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7bULxKqvvyc8B_3sdbW6MKR7eR59AwZp.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/225882/18/26582/93975/675834edFab3d48cb/eca5ee2dfa019067.jpg</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDHXbC</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODl5fC</t>
-  </si>
-  <si>
-    <t>爱的艺术（弗洛姆作品系列）</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/qu2QD3BY7rO7rAnUeqvewBQd_3sdbW6MKR7UUquPPap.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/101022/32/34507/25231/636e7502Eeb485c62/0fb7fd583095b489.jpg</t>
-  </si>
-  <si>
-    <t>25.30</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDEL8w</t>
-  </si>
-  <si>
-    <t>自由意志、能动性与生命的意义 德克?佩里布姆著 如果自由意志只是幻觉，我们如何思考道德责任？</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/JCiqFVuIiw9LWzlMWg3fU1uj_3JKSTosM3iXFJLldkw.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/225354/31/9280/74249/66b5267eF5d213b2d/2c7eabe46141b777.jpg</t>
-  </si>
-  <si>
-    <t>33.66</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDHwWq</t>
-  </si>
-  <si>
-    <t>蛤蟆先生去看心理医生</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/daMwkoPvINAAuN2FfeA5xdHh_3ioM2CBSxIEEdaFMRG.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/93115/14/21361/26949/65d704ffF363483c4/81564e7a0b299681.jpg</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>22.80</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGD2k5T</t>
-  </si>
-  <si>
-    <t>非暴力沟通 （修订版）</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/0R8MFfMoV9faJ6DJh06xk7y4_3UIh70AdRVss0RWlzs.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/90918/24/41245/110037/6555b473Ff7af3250/f8e8c80d54b889be.jpg</t>
-  </si>
-  <si>
-    <t>35.88</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODpcUe</t>
-  </si>
-  <si>
-    <t>PICOOC有品智能体脂秤体重秤充电家用电子秤测人体数据脂肪秤减肥体脂称Mini-C生日礼物礼品送男女友</t>
-  </si>
-  <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qnONOitXJKrXOTq_3FGg4Cjtl1jddA54fb.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/261336/39/25321/131894/67c00981F7203a3ab/452a89430108069f.jpg</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
     <t>7.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDDJZn</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GgDfA6C</t>
+    <t>https://u.jd.com/6DIfpZ2</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6gInoQs</t>
   </si>
   <si>
     <t>奥秘奥秘OMIN康迪精选蓝孔雀会员杆球杆3/4分体斯诺克黑八九球小头杆 一体杆（不可拆卸） 带杆盒套装/小头10mm</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3MUVwvjGFPnVlq_3paYfDqqIlxa2BixEr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlklnwj62Y6xuGQnC_3paYfDqqIlxa2BixEr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/112696/25/43050/188647/661ea463Fe0fa95e9/0e29712a1c9a654d.jpg</t>
@@ -729,48 +932,48 @@
     <t>25.20</t>
   </si>
   <si>
-    <t>https://u.jd.com/G1DvZMX</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DSrOo</t>
+    <t>https://u.jd.com/6gI2xRi</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIpdBJ</t>
   </si>
   <si>
     <t>爱乐维（Elevit）德国版活性叶酸复合维生素90片 备孕-孕早期女士适用</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/57A7UrYPuiXpgwrAqxyDTo0m_3jk91roEJuFF578Bxj.html</t>
-  </si>
-  <si>
-    <t>img14.360buyimg.com/n0/jfs/t1/260044/28/25408/138281/67c05101F82eefe7e/a38f44709aa9e3c4.jpg</t>
-  </si>
-  <si>
-    <t>7000</t>
+    <t>https://jingfen.jd.com/detail/57A7UrYPuiGK9ZotVzC23rs1_3jk91roEJuFF578Bxj.html</t>
+  </si>
+  <si>
+    <t>img14.360buyimg.com/n0/jfs/t1/260855/1/29487/146758/67ca99d6F5b03f616/72a88be07dd7f619.jpg</t>
+  </si>
+  <si>
+    <t>8000</t>
   </si>
   <si>
     <t>489.00</t>
   </si>
   <si>
-    <t>433.00</t>
-  </si>
-  <si>
-    <t>17.32</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GrD1ml8</t>
+    <t>424.00</t>
+  </si>
+  <si>
+    <t>16.96</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIv77B</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6DIg8QV</t>
   </si>
   <si>
     <t>杜蕾斯（durex）持久延时避孕套 男专用安全套套12只含赠 苯佐卡因中号情趣用品 【延时NO.1】经典延时10+玻尿酸2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKye9F5ImlMzVbH_3klNtUvm52DDeBvgrC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2Y3hlfveWGnPN7gM_3klNtUvm52DDeBvgrC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/108152/29/58248/130169/67346891Fe9623bba/f3fd02994ffb4c64.jpg</t>
   </si>
   <si>
-    <t>8000</t>
-  </si>
-  <si>
     <t>109.90</t>
   </si>
   <si>
@@ -780,34 +983,34 @@
     <t>6.09</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDlBP2</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DB3xi</t>
+    <t>https://u.jd.com/6rIyBK6</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61IAHqZ</t>
   </si>
   <si>
     <t>进化心理学：心理的新科学第4版 心理学与认知科学领域经典</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/CGVm8VLgEQyr3NMHXYSNrtah_3GHvBWrhCEzzCGDwes.html</t>
+    <t>https://jingfen.jd.com/detail/CGVm8VLgEQmHhNT72K6PriQI_3GHvBWrhCEzzCGDwes.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/160487/34/31186/79037/650124c8F7960e750/e65a2c4b2177f242.jpg</t>
   </si>
   <si>
-    <t>69.36</t>
-  </si>
-  <si>
-    <t>2.77</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGD0rJm</t>
+    <t>69.52</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61INteG</t>
   </si>
   <si>
     <t>正念冥想：遇见更好的自己 第3版</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/VN26PBTU1qnOVIJdiJKyE64E_3FGg4Cjtl1jjVNtVXb.html</t>
+    <t>https://jingfen.jd.com/detail/VN26PBTU1qziRm52m3cnfDD0_3FGg4Cjtl1jjVNtVXb.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/89942/3/43952/38725/65d7068aF2af46eb9/2b3eab352d2e0903.jpg</t>
@@ -819,13 +1022,13 @@
     <t>2.79</t>
   </si>
   <si>
-    <t>https://u.jd.com/GGDjg8G</t>
+    <t>https://u.jd.com/6OIWyQP</t>
   </si>
   <si>
     <t>奴诗漫跳杆单跳台球杆跳球杆枫木冲杆分体水晶皮头专业中式台球杆桶套装 利台单跳杆1支</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3M2EBgMGF5tqaP_3paYfDqqIlxyECHbWr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlkln2u4NV6x5Q5XU_3paYfDqqIlxyECHbWr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/157332/22/49053/69221/672b2bceFd5ce1bb7/3855b20a65b7e8b8.jpg</t>
@@ -843,16 +1046,16 @@
     <t>23.76</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgD1kfU</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G6Da7gz</t>
+    <t>https://u.jd.com/66IJjoC</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66INcor</t>
   </si>
   <si>
     <t>科大讯飞智能办公本Air 2 电纸书阅读器8.2英寸墨水屏 电子书 电子笔记本 语音转文字 搭载讯飞星火大模型 【京仓速发】智能办公本Air 2</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/bksSsCj8pDxJ1njKVXZpxsjR_327oyi9KipK4xpwk9L.html</t>
+    <t>https://jingfen.jd.com/detail/bksSsCj8pDZGpJ4rJ5F1XBEY_327oyi9KipK4xpwk9L.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/257734/18/24787/82112/67be89f2F96eab6ea/3efc9b5877cc41b6.jpg</t>
@@ -870,13 +1073,13 @@
     <t>125.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/G6DY775</t>
+    <t>https://u.jd.com/61INcRd</t>
   </si>
   <si>
     <t>效率红利+认知红利 谢春霖 套装全2册 提升工作效率 职场案头工具书</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/3nW3qPGq9U26WRTblDbT77hu_3cvPzVnUx9JJ3ngW8p.html</t>
+    <t>https://jingfen.jd.com/detail/3nW3qPGq9Utab4c6cTe884Ew_3cvPzVnUx9JJ3ngW8p.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/191316/34/44426/36885/662f40d2F1e4e3054/bbfe2bc3eab4a38b.jpg</t>
@@ -888,13 +1091,13 @@
     <t>3.73</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDJBZ8</t>
+    <t>https://u.jd.com/6gIHIcl</t>
   </si>
   <si>
     <t>动手学深度学习 PyTorch版 李沐和阿斯顿·张等强强联合之作！机器学习、深度学习、AI领域重磅教程！ deepseek机器学习（异步图书出品）</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/SYuWnohDt85R6ESkMZPMPtVn_3QWdiz1QctyySYQ7B0.html</t>
+    <t>https://jingfen.jd.com/detail/SYuWnohDt8dqfU74f4aS0LsT_3QWdiz1QctyySYQ7B0.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/57568/3/23228/192432/63db2ffbF904616b1/e47033e148934da9.jpg</t>
@@ -906,49 +1109,49 @@
     <t>2.40</t>
   </si>
   <si>
-    <t>https://u.jd.com/GGD0AUi</t>
+    <t>https://u.jd.com/6DIZJBg</t>
   </si>
   <si>
     <t>中国哲学简史（彩图精装本）哲学家冯友兰畅销七十年的经典 中国哲学入门读物 涂又光翻译</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/82IB57cr2YKygLMhGmlFiLrU_3klNtUvm52DD82SdtC.html</t>
+    <t>https://jingfen.jd.com/detail/82IB57cr2Y3hg5JuGGnFUfaU_3klNtUvm52DD82SdtC.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/58943/21/22180/127249/64803ae8F6d0e0316/5ef28ac997a06b2e.jpg</t>
   </si>
   <si>
-    <t>71.50</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GODDt0F</t>
+    <t>80.08</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/61Ic52K</t>
   </si>
   <si>
     <t>枪炮 病菌与钢铁 2022版本 贾雷德戴蒙德著 赠解读本 崩溃 剧变 昨日之前的世界 第三种黑猩猩 中信出版社</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/etWalBtBlk3MsGdTUGFdjZOV_3paYfDqqIlTTet1gQr.html</t>
+    <t>https://jingfen.jd.com/detail/etWalBtBlkln26Gbv6x5Mpzu_3paYfDqqIlTTet1gQr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/85104/3/28435/196787/62b91bcdE306c51a6/cc51a0f83bf63d72.jpg</t>
   </si>
   <si>
-    <t>66.75</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GGDSZiK</t>
+    <t>57.80</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIRRoQ</t>
   </si>
   <si>
     <t>全套4册 人类简史+时间简史+相对论+物种起源自然科学启蒙天文学宇宙百科书籍 生物学遗传学自然科学</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/uq5161miAPaMNrZfZExijO7B_3fgGndXpsAOOyFQmm2.html</t>
+    <t>https://jingfen.jd.com/detail/uq5161miAP2HdvVXzD8Zy0T6_3fgGndXpsAOOyFQmm2.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/40021/21/29922/58439/65445044Fff0d9539/9c6b503dc969e613.jpg</t>
@@ -960,13 +1163,13 @@
     <t>8.64</t>
   </si>
   <si>
-    <t>https://u.jd.com/GrDPQRD</t>
+    <t>https://u.jd.com/6DIRPsA</t>
   </si>
   <si>
     <t>金钱心理学 全球狂销超300万册，美国亚马逊理财类No.1，你和金钱的关系，决定了财富和你的距离！财务自由指南</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/goTyV1rMdbIKjgai8ipzj0h3_3yuxuQosCdQQgospEs.html</t>
+    <t>https://jingfen.jd.com/detail/goTyV1rMdbOvYv8r6qUU0xsV_3yuxuQosCdQQgospEs.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/98128/26/35155/148724/6479b9a6F28f0eac0/e99e32d25cf5b977.jpg</t>
@@ -975,19 +1178,22 @@
     <t>5000</t>
   </si>
   <si>
-    <t>36.40</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/GDDn3Ro</t>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6OI7Q2W</t>
   </si>
   <si>
     <t>纳瓦尔宝典 财富与幸福指南 纳瓦尔智慧箴言录 巴拉吉预言 埃里克乔根森 著 樊登作序推荐</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/qvhHTMNVPepeflgge3b7fs0C_6qw81ZBzwpXwqvC0WJ.html</t>
+    <t>https://jingfen.jd.com/detail/qvhHTMNVPeapAbWqO72To4Sb_6qw81ZBzwpXwqvC0WJ.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/47246/22/17816/151164/62898f0bEc4dec9c1/8b811c3129fd3eef.jpg</t>
@@ -999,13 +1205,13 @@
     <t>1.77</t>
   </si>
   <si>
-    <t>https://u.jd.com/GDDPzaR</t>
+    <t>https://u.jd.com/6OIDUIj</t>
   </si>
   <si>
     <t>百万畅销书 穷查理宝典 全新口袋本 查理芒格智慧精要 价值投资 人生哲学 人生智慧 巴菲特 芒格之道 伯克希尔公司</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/hpoEHV9LF2bYuz03oBjtsaJf_3tyFQIkYHFWWhQLIOI.html</t>
+    <t>https://jingfen.jd.com/detail/hpoEHV9LF2hDosuF31pazPVV_3tyFQIkYHFWWhQLIOI.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/232771/27/34819/84850/67bd8266Ff1d89c83/08c7fabb10ada627.jpg</t>
@@ -1017,31 +1223,31 @@
     <t>1.96</t>
   </si>
   <si>
-    <t>https://u.jd.com/GODvdbO</t>
+    <t>https://u.jd.com/6aIR010</t>
   </si>
   <si>
     <t xml:space="preserve">原则 如何创造出完美独特的自己 百万级畅销书 桥水创始人瑞 达利欧 白手起家的全成功方案 半个金融圈都在读 </t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vavDDEGR2V8kdcfL_3SD7M73mavggQ9D0SH.html</t>
+    <t>https://jingfen.jd.com/detail/Q9Z2ZCH4vaUuXFzo7uOm5J9Z_3SD7M73mavggQ9D0SH.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/103816/34/29119/84199/6284d9ddE55566bc2/5ce0dca008517992.jpg</t>
   </si>
   <si>
-    <t>65.30</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1D1KZ6</t>
+    <t>73.50</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/6rIgrOr</t>
   </si>
   <si>
     <t>【包邮】被讨厌的勇气 自我启发之父阿德勒的哲学课 心理学入门畅销书籍</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/JSbI1EiyJnXNcIgSuZE30gZs_cIOf4YE6o1Y4JSQ8Hr.html</t>
+    <t>https://jingfen.jd.com/detail/JSbI1EiyJnlzlKRZv7pmVRS5_cIOf4YE6o1Y4JSQ8Hr.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/211627/9/43196/116689/6730b83aF0f649b6d/35e719e16d430a81.jpg</t>
@@ -1056,13 +1262,13 @@
     <t>1.19</t>
   </si>
   <si>
-    <t>https://u.jd.com/GGDaJ9m</t>
+    <t>https://u.jd.com/6aI1cJe</t>
   </si>
   <si>
     <t>唐诗三百300首正版全集 注释 译文 中国诗词大全古代古典诗词书籍 中国人财保险承保【假一赔十】 无障碍阅读国学经典：唐诗三百首</t>
   </si>
   <si>
-    <t>https://jingfen.jd.com/detail/xlfJ15R9UoTSeFHyxtERo46g_364tk8oMXUYZqjtSkj.html</t>
+    <t>https://jingfen.jd.com/detail/xlfJ15R9Uox5gXzmrXlIwqrm_364tk8oMXUYZqjtSkj.html</t>
   </si>
   <si>
     <t>img14.360buyimg.com/n0/jfs/t1/151375/35/18798/97811/665f127bF65b05381/21fff6c36bf9caac.jpg</t>
@@ -1077,35 +1283,188 @@
     <t>15.60</t>
   </si>
   <si>
-    <t>https://u.jd.com/GgDjYkq</t>
-  </si>
-  <si>
-    <t>https://u.jd.com/G1DPnt7</t>
+    <t>https://u.jd.com/6gIRMq9</t>
+  </si>
+  <si>
+    <t>https://u.jd.com/66IAvhb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,8 +1477,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1142,9 +1687,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1152,24 +1929,288 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="0099CCFF"/>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1211,12 +2252,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1246,12 +2287,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1420,27 +2461,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="51.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="57.1428571428571" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +2539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1515,92 +2550,92 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1632,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1643,487 +2678,487 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>158</v>
@@ -2132,7 +3167,7 @@
         <v>158</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
         <v>159</v>
@@ -2144,7 +3179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -2155,895 +3190,1214 @@
         <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" t="s">
-        <v>236</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="E34" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
         <v>238</v>
       </c>
-      <c r="B34" t="s">
+      <c r="I34" t="s">
         <v>239</v>
-      </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" t="s">
-        <v>245</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" t="s">
         <v>246</v>
       </c>
-      <c r="B35" t="s">
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>247</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>248</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
         <v>249</v>
-      </c>
-      <c r="E35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s">
-        <v>252</v>
-      </c>
-      <c r="I35" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" t="s">
-        <v>257</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>261</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>262</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>263</v>
       </c>
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
         <v>264</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>264</v>
       </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
         <v>265</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>266</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>267</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>268</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>269</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>270</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
         <v>271</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I39" t="s">
         <v>272</v>
-      </c>
-      <c r="H38" t="s">
-        <v>273</v>
-      </c>
-      <c r="I38" t="s">
-        <v>274</v>
-      </c>
-      <c r="J38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>276</v>
-      </c>
-      <c r="B39" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" t="s">
-        <v>282</v>
-      </c>
-      <c r="I39" t="s">
-        <v>283</v>
       </c>
       <c r="J39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="I41" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" t="s">
+        <v>291</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
         <v>296</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
         <v>297</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F43" t="s">
         <v>298</v>
       </c>
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="F42" t="s">
-        <v>299</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>300</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>301</v>
       </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="J43" t="s">
         <v>302</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>303</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>304</v>
       </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C44" t="s">
         <v>305</v>
       </c>
-      <c r="F43" t="s">
-        <v>305</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="D44" t="s">
         <v>306</v>
       </c>
-      <c r="I43" t="s">
+      <c r="E44" t="s">
         <v>307</v>
       </c>
-      <c r="J43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="F44" t="s">
         <v>308</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" t="s">
         <v>309</v>
       </c>
-      <c r="C44" t="s">
+      <c r="I44" t="s">
         <v>310</v>
       </c>
-      <c r="D44" t="s">
+      <c r="J44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>290</v>
+      </c>
+      <c r="H45" t="s">
+        <v>317</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s">
-        <v>311</v>
-      </c>
-      <c r="F44" t="s">
-        <v>311</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s">
-        <v>312</v>
-      </c>
-      <c r="I44" t="s">
-        <v>313</v>
-      </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" t="s">
-        <v>317</v>
-      </c>
-      <c r="E45" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" t="s">
-        <v>319</v>
-      </c>
-      <c r="I45" t="s">
-        <v>320</v>
-      </c>
-      <c r="J45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>321</v>
-      </c>
-      <c r="B46" t="s">
-        <v>322</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>323</v>
       </c>
-      <c r="D46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
         <v>324</v>
       </c>
-      <c r="F46" t="s">
-        <v>324</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>325</v>
-      </c>
-      <c r="I46" t="s">
-        <v>326</v>
       </c>
       <c r="J46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" t="s">
         <v>327</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>328</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
         <v>329</v>
       </c>
-      <c r="D47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
         <v>330</v>
       </c>
-      <c r="F47" t="s">
-        <v>330</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>331</v>
-      </c>
-      <c r="I47" t="s">
-        <v>332</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" t="s">
         <v>333</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>334</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
         <v>335</v>
-      </c>
-      <c r="D48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" t="s">
-        <v>336</v>
       </c>
       <c r="F48" t="s">
         <v>336</v>
       </c>
       <c r="G48" t="s">
+        <v>337</v>
+      </c>
+      <c r="H48" t="s">
+        <v>338</v>
+      </c>
+      <c r="I48" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
         <v>22</v>
       </c>
-      <c r="H48" t="s">
-        <v>337</v>
-      </c>
-      <c r="I48" t="s">
-        <v>338</v>
-      </c>
-      <c r="J48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>339</v>
-      </c>
-      <c r="B49" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" t="s">
-        <v>342</v>
-      </c>
       <c r="E49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="H49" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I49" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F50" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I50" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F51" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>364</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" t="s">
+        <v>365</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>370</v>
+      </c>
+      <c r="F53" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" t="s">
+        <v>371</v>
+      </c>
+      <c r="I53" t="s">
+        <v>372</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+      <c r="C55" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" t="s">
+        <v>383</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>384</v>
+      </c>
+      <c r="H55" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55" t="s">
+        <v>386</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" t="s">
+        <v>390</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H56" t="s">
+        <v>391</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>393</v>
+      </c>
+      <c r="B57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" t="s">
+        <v>397</v>
+      </c>
+      <c r="I57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B58" t="s">
+        <v>400</v>
+      </c>
+      <c r="C58" t="s">
+        <v>401</v>
+      </c>
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="H58" t="s">
+        <v>403</v>
+      </c>
+      <c r="I58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" t="s">
+        <v>409</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>410</v>
+      </c>
+      <c r="I59" t="s">
+        <v>411</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>412</v>
+      </c>
+      <c r="B60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>415</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>417</v>
+      </c>
+      <c r="I60" t="s">
+        <v>418</v>
+      </c>
+      <c r="J60" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>